--- a/Setting/data/数据表.xlsx
+++ b/Setting/data/数据表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\佛祖放置\Setting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103BBF10-4F88-40A9-B3DD-AA69DF67FC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D85165-6801-4E37-9CB9-C88D71410C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="200">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,9 +89,6 @@
   <si>
     <t>img</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ares.jpg</t>
   </si>
   <si>
     <t>ID</t>
@@ -652,10 +649,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>神秘的古代魔法。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>神话之盐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -779,6 +772,31 @@
   </si>
   <si>
     <t>Golden_Inspiration.png</t>
+  </si>
+  <si>
+    <t>Antimatter.png</t>
+  </si>
+  <si>
+    <t>Dark.png</t>
+  </si>
+  <si>
+    <t>King.png</t>
+  </si>
+  <si>
+    <t>卡巴拉之术是宇宙的符号化表现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金之子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炙热硫磺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白金圣手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1172,7 +1190,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1195,10 +1213,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>2</v>
@@ -1249,19 +1267,19 @@
         <v>10001</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1269,19 +1287,19 @@
         <v>10002</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1289,19 +1307,19 @@
         <v>10003</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1309,19 +1327,19 @@
         <v>10004</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1329,19 +1347,19 @@
         <v>10005</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1349,19 +1367,19 @@
         <v>10006</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1369,19 +1387,19 @@
         <v>10007</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1389,19 +1407,19 @@
         <v>10008</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1409,19 +1427,19 @@
         <v>10009</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1429,19 +1447,19 @@
         <v>10010</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1449,19 +1467,19 @@
         <v>10011</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1469,19 +1487,19 @@
         <v>10012</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1489,19 +1507,19 @@
         <v>10013</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1509,19 +1527,19 @@
         <v>10014</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>161</v>
+        <v>107</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1529,19 +1547,19 @@
         <v>10015</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1549,19 +1567,19 @@
         <v>10016</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1569,19 +1587,19 @@
         <v>10017</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1589,19 +1607,19 @@
         <v>10018</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1609,19 +1627,19 @@
         <v>10019</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1629,19 +1647,19 @@
         <v>10020</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F23" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1735,8 +1753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E051483D-BA96-4FF1-9EBC-33D32BF815CB}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1761,10 +1779,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>2</v>
@@ -1775,7 +1793,7 @@
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>3</v>
@@ -1787,10 +1805,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>11</v>
@@ -1810,10 +1828,10 @@
         <v>6</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>12</v>
@@ -1824,22 +1842,22 @@
         <v>20001</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1847,22 +1865,22 @@
         <v>20002</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1870,22 +1888,22 @@
         <v>20003</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>172</v>
-      </c>
       <c r="D6" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s">
         <v>186</v>
-      </c>
-      <c r="F6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1893,22 +1911,22 @@
         <v>20007</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1916,22 +1934,22 @@
         <v>20008</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1939,22 +1957,22 @@
         <v>20009</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1962,22 +1980,22 @@
         <v>20010</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1985,22 +2003,22 @@
         <v>20011</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2008,22 +2026,22 @@
         <v>20012</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2031,22 +2049,22 @@
         <v>20013</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2054,22 +2072,22 @@
         <v>20014</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2077,22 +2095,22 @@
         <v>20015</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2100,22 +2118,22 @@
         <v>20016</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2123,22 +2141,22 @@
         <v>20017</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2146,35 +2164,58 @@
         <v>20018</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s">
-        <v>189</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="13" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="13"/>
+      <c r="B22" s="13" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="13"/>
+      <c r="B23" s="13" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="13"/>
+      <c r="B24" s="13" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="13"/>
+      <c r="B25" s="13" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
@@ -2203,22 +2244,22 @@
         <v>20004</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2226,22 +2267,22 @@
         <v>20005</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2249,22 +2290,22 @@
         <v>20006</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2301,10 +2342,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>2</v>
@@ -2312,7 +2353,7 @@
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>3</v>
@@ -2321,10 +2362,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>11</v>
@@ -2341,10 +2382,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>12</v>
@@ -2355,16 +2396,16 @@
         <v>30001</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>20</v>
-      </c>
       <c r="D4" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2395,7 +2436,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -2403,13 +2444,13 @@
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -2423,7 +2464,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -2434,10 +2475,10 @@
         <v>40001</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>

--- a/Setting/data/数据表.xlsx
+++ b/Setting/data/数据表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\佛祖放置\Setting\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\Clicker\Setting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D85165-6801-4E37-9CB9-C88D71410C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE1B921-CD44-4D14-AC00-D7F02807E5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物品表 - Items" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="~临时字段" sheetId="8" r:id="rId3"/>
     <sheet name="事件表 - Events" sheetId="6" r:id="rId4"/>
     <sheet name="事件内容表-EventData" sheetId="7" r:id="rId5"/>
+    <sheet name="~敌人表-Enemy" sheetId="9" r:id="rId6"/>
+    <sheet name="配方表-Recipe" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="311">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -373,50 +375,6 @@
   </si>
   <si>
     <t>5|10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5|13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5|15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5|18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5|21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5|24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5|30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5|33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5|36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5|42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5|5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -791,19 +749,477 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>白金圣手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天国侍者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇迹贤者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼金教父</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇宙导师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个炼金术士获得的金币是原来的 2 倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|3</t>
+  </si>
+  <si>
+    <t>5|3</t>
+  </si>
+  <si>
+    <t>5|4</t>
+  </si>
+  <si>
+    <t>5|6</t>
+  </si>
+  <si>
+    <t>5|8</t>
+  </si>
+  <si>
+    <t>5|9</t>
+  </si>
+  <si>
+    <t>1.1|4</t>
+  </si>
+  <si>
+    <t>5.5|4</t>
+  </si>
+  <si>
+    <t>5.5|5</t>
+  </si>
+  <si>
+    <t>5.5|7</t>
+  </si>
+  <si>
+    <t>5.5|9</t>
+  </si>
+  <si>
+    <t>5.5|11</t>
+  </si>
+  <si>
+    <t>add[10003][bonus][efficiency][2.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Son_of_Gold.png</t>
+  </si>
+  <si>
+    <t>GodfatherAlchemy.png</t>
+  </si>
+  <si>
+    <t>Cosmic_Tutor.png</t>
+  </si>
+  <si>
+    <t>Godfather_of_Blacksmithing.png</t>
+  </si>
+  <si>
+    <t>Diamond_Blacksmi.png</t>
+  </si>
+  <si>
+    <t>Salt_of_Myth.png</t>
+  </si>
+  <si>
+    <t>铅之巨像</t>
+  </si>
+  <si>
+    <t>地狱烈马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冥界侍者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永恒烈阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破碎之心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜血宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜巨莽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击获得金币+0.1倍</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金梦想</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>精酿小麦酒</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学世界</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>click[10001][bonus][efficiency][1.1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼金术士认为这本书和他的价值观不符，工作效率降低。-800000金币。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce[10002][coins][efficiency][800000]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个炼金锅获得的金币是原来的 2 倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个炼金石磨获得的金币是原来的 2 倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个炼成阵获得的金币是原来的 2 倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个红宝石获得的金币是原来的 2 倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个王水获得的金币是原来的 2 倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个长生露获得的金币是原来的 2 倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个五芒星获得的金币是原来的 2 倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个太阳获得的金币是原来的 2 倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个月亮获得的金币是原来的 2 倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个黄金之塔获得的金币是原来的 2 倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个卡巴拉之术获得的金币是原来的 2 倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个圣杯获得的金币是原来的 2 倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个贤者之石获得的金币是原来的 2 倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个天国阶梯获得的金币是原来的 2 倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个暗物质星系获得的金币是原来的 2 倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个平行宇宙获得的金币是原来的 2 倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10004][bonus][efficiency][2.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10005][bonus][efficiency][2.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10006][bonus][efficiency][2.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10008][bonus][efficiency][2.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10009][bonus][efficiency][2.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10010][bonus][efficiency][2.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10011][bonus][efficiency][2.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10012][bonus][efficiency][2.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10013][bonus][efficiency][2.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10014][bonus][efficiency][2.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10015][bonus][efficiency][2.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10020][bonus][efficiency][2.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10019][bonus][efficiency][2.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10017][bonus][efficiency][2.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10016][bonus][efficiency][2.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个星锑获得的金币是原来的 2 倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10018][bonus][efficiency][2.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2|5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6|5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6|6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6|8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6|10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6|12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3|6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.5|6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.5|7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.5|9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.5|11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.5|13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>own[10001]602</t>
+  </si>
+  <si>
+    <t>own[10001]603</t>
+  </si>
+  <si>
+    <t>own[10001]604</t>
+  </si>
+  <si>
+    <t>own[10001]605</t>
+  </si>
+  <si>
+    <t>own[10001]606</t>
+  </si>
+  <si>
+    <t>own[10001]607</t>
+  </si>
+  <si>
+    <t>own[10001]608</t>
+  </si>
+  <si>
+    <t>own[10001]609</t>
+  </si>
+  <si>
+    <t>own[10001]610</t>
+  </si>
+  <si>
+    <t>own[10001]611</t>
+  </si>
+  <si>
+    <t>own[10001]612</t>
+  </si>
+  <si>
+    <t>Pot.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>own[10001]600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneMill.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>炙热硫磺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>白金圣手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>钢铁之心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆裂熔岩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗物质锅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇宙魔锅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙漠之釜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10002][bonus][efficiency][0.2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁匠很喜欢喝，但没想到是假酒。每个铁匠获得的金币变为 0.2 倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地中海的气候</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼金术士认为有时候也要享受一下。炼金术士获得金币 +0.1 倍。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10003][coins][efficiency][1.1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二个酒吧</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhoneProject2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼成阵听音乐的时候，身体会颤抖。炼成阵获得金币 +0.1倍。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼金石磨听音乐的时候，身体会颤抖。炼金石磨获得金币 +0.1倍。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rudy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>红宝石找到了它异父异母的兄弟。Puts "Hey"。红宝石获得金币 +0.1 倍。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10004][coins][efficiency][1.1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10005][coins][efficiency][1.1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10006][coins][efficiency][1.1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -854,8 +1270,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF050E17"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -880,6 +1302,96 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -894,7 +1406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -911,6 +1423,27 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1189,8 +1722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E93042-FDD7-4095-BDE6-2D807EF660F2}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A3" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1267,10 +1800,10 @@
         <v>10001</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>25</v>
@@ -1279,7 +1812,7 @@
         <v>45</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1287,10 +1820,10 @@
         <v>10002</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>26</v>
@@ -1299,7 +1832,7 @@
         <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1307,10 +1840,10 @@
         <v>10003</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>27</v>
@@ -1319,7 +1852,7 @@
         <v>63</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1327,10 +1860,10 @@
         <v>10004</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>28</v>
@@ -1339,7 +1872,7 @@
         <v>64</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>130</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1347,10 +1880,10 @@
         <v>10005</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>29</v>
@@ -1359,7 +1892,7 @@
         <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1367,10 +1900,10 @@
         <v>10006</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>44</v>
@@ -1379,7 +1912,7 @@
         <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1387,10 +1920,10 @@
         <v>10007</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>43</v>
@@ -1399,7 +1932,7 @@
         <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1407,10 +1940,10 @@
         <v>10008</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>42</v>
@@ -1419,7 +1952,7 @@
         <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1427,10 +1960,10 @@
         <v>10009</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>41</v>
@@ -1439,7 +1972,7 @@
         <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1447,10 +1980,10 @@
         <v>10010</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>40</v>
@@ -1459,7 +1992,7 @@
         <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1467,10 +2000,10 @@
         <v>10011</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>39</v>
@@ -1479,7 +2012,7 @@
         <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1487,10 +2020,10 @@
         <v>10012</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>38</v>
@@ -1499,7 +2032,7 @@
         <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1507,10 +2040,10 @@
         <v>10013</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>37</v>
@@ -1519,7 +2052,7 @@
         <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1527,10 +2060,10 @@
         <v>10014</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>36</v>
@@ -1539,7 +2072,7 @@
         <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1547,10 +2080,10 @@
         <v>10015</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>35</v>
@@ -1559,7 +2092,7 @@
         <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1567,10 +2100,10 @@
         <v>10016</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>34</v>
@@ -1579,7 +2112,7 @@
         <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1587,10 +2120,10 @@
         <v>10017</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>33</v>
@@ -1599,7 +2132,7 @@
         <v>58</v>
       </c>
       <c r="F20" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1607,10 +2140,10 @@
         <v>10018</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>32</v>
@@ -1619,7 +2152,7 @@
         <v>59</v>
       </c>
       <c r="F21" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1627,10 +2160,10 @@
         <v>10019</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>31</v>
@@ -1639,7 +2172,7 @@
         <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1647,10 +2180,10 @@
         <v>10020</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>30</v>
@@ -1659,7 +2192,7 @@
         <v>61</v>
       </c>
       <c r="F23" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1751,21 +2284,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E051483D-BA96-4FF1-9EBC-33D32BF815CB}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A18" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="8.625" customWidth="1"/>
-    <col min="3" max="3" width="37.375" customWidth="1"/>
-    <col min="4" max="4" width="5.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="61" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
@@ -1841,83 +2374,83 @@
       <c r="A4">
         <v>20001</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>166</v>
+      <c r="B4" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>82</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="F4" t="s">
         <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>20002</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>167</v>
+      <c r="B5" s="14" t="s">
+        <v>156</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20003</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>168</v>
+      <c r="B6" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>84</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="F6" t="s">
         <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>20007</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>125</v>
+        <v>20004</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>88</v>
+        <v>198</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>16</v>
@@ -1926,21 +2459,21 @@
         <v>73</v>
       </c>
       <c r="G7" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>20008</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>126</v>
+        <v>20005</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>89</v>
+        <v>199</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>16</v>
@@ -1949,21 +2482,21 @@
         <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>20009</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>127</v>
+        <v>20006</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>16</v>
@@ -1972,21 +2505,21 @@
         <v>75</v>
       </c>
       <c r="G9" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>20010</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>160</v>
+        <v>20007</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>16</v>
@@ -1995,21 +2528,21 @@
         <v>76</v>
       </c>
       <c r="G10" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>20011</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>161</v>
+        <v>20008</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>92</v>
+        <v>202</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>16</v>
@@ -2018,21 +2551,21 @@
         <v>77</v>
       </c>
       <c r="G11" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>20012</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>162</v>
+        <v>20009</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>93</v>
+        <v>203</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>16</v>
@@ -2041,187 +2574,452 @@
         <v>78</v>
       </c>
       <c r="G12" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>20013</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>178</v>
+        <v>20010</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>167</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>94</v>
+        <v>204</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="F13" t="s">
         <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>20014</v>
-      </c>
-      <c r="B14" s="13" t="s">
+        <v>20011</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>180</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>191</v>
       </c>
       <c r="F14" t="s">
         <v>80</v>
       </c>
       <c r="G14" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>20015</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>179</v>
+        <v>20012</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>168</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>96</v>
+        <v>206</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="F15" t="s">
         <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>20016</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>181</v>
+        <v>20013</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>170</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>97</v>
+        <v>207</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="F16" t="s">
         <v>81</v>
       </c>
       <c r="G16" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>20017</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>182</v>
+        <v>20014</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="F17" t="s">
         <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>20018</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>183</v>
+        <v>20015</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>172</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>98</v>
+        <v>209</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="F18" t="s">
         <v>81</v>
       </c>
       <c r="G18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>20016</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20017</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="13" t="s">
+      <c r="C20" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20018</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20019</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>20020</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>20021</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="13" t="s">
-        <v>197</v>
+      <c r="E24" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="13" t="s">
-        <v>198</v>
+      <c r="A25">
+        <v>20022</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="13"/>
+      <c r="A26">
+        <v>20023</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="F26" t="s">
+        <v>277</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="13"/>
+      <c r="A27">
+        <v>20024</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="F27" t="s">
+        <v>278</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>20025</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="F28" t="s">
+        <v>279</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>20026</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="F29" t="s">
+        <v>280</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>20027</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="F30" t="s">
+        <v>281</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B127" s="34"/>
+      <c r="C127" s="13"/>
+      <c r="E127" s="13"/>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B128" s="34"/>
+      <c r="C128" s="13"/>
+      <c r="E128" s="13"/>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B129" s="34"/>
+      <c r="C129" s="13"/>
+      <c r="E129" s="13"/>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B130" s="34"/>
+      <c r="C130" s="13"/>
+      <c r="E130" s="13"/>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B131" s="34"/>
+      <c r="C131" s="13"/>
+      <c r="E131" s="13"/>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B132" s="34"/>
+      <c r="C132" s="13"/>
+      <c r="E132" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2231,10 +3029,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7E6B59-2776-4BF4-820D-1188B7AE0776}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView topLeftCell="A88" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2244,10 +3042,10 @@
         <v>20004</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>85</v>
@@ -2259,7 +3057,7 @@
         <v>70</v>
       </c>
       <c r="G1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2267,10 +3065,10 @@
         <v>20005</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>86</v>
@@ -2282,7 +3080,7 @@
         <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2290,10 +3088,10 @@
         <v>20006</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>87</v>
@@ -2305,7 +3103,1305 @@
         <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>188</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20034</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>20035</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>20036</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>20037</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>20038</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>20039</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>20040</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>20041</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>20042</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>20043</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>20044</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>20045</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>20046</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>20047</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>20048</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20049</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20050</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20051</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>20052</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>20053</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>20054</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>20055</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>20056</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>20057</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>20058</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>20059</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>20060</v>
+      </c>
+      <c r="B31" s="25"/>
+      <c r="C31" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>20061</v>
+      </c>
+      <c r="B32" s="25"/>
+      <c r="C32" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>20062</v>
+      </c>
+      <c r="B33" s="25"/>
+      <c r="C33" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>20063</v>
+      </c>
+      <c r="B34" s="25"/>
+      <c r="C34" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>20064</v>
+      </c>
+      <c r="B35" s="26"/>
+      <c r="C35" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>20065</v>
+      </c>
+      <c r="B36" s="26"/>
+      <c r="C36" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>20066</v>
+      </c>
+      <c r="B37" s="26"/>
+      <c r="C37" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>20067</v>
+      </c>
+      <c r="B38" s="26"/>
+      <c r="C38" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>20068</v>
+      </c>
+      <c r="B39" s="26"/>
+      <c r="C39" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>20069</v>
+      </c>
+      <c r="B40" s="26"/>
+      <c r="C40" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>20070</v>
+      </c>
+      <c r="B41" s="27"/>
+      <c r="C41" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>20071</v>
+      </c>
+      <c r="B42" s="27"/>
+      <c r="C42" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>20072</v>
+      </c>
+      <c r="B43" s="27"/>
+      <c r="C43" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>20073</v>
+      </c>
+      <c r="B44" s="27"/>
+      <c r="C44" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>20074</v>
+      </c>
+      <c r="B45" s="27"/>
+      <c r="C45" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>20075</v>
+      </c>
+      <c r="B46" s="27"/>
+      <c r="C46" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>20076</v>
+      </c>
+      <c r="B47" s="28"/>
+      <c r="C47" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>20077</v>
+      </c>
+      <c r="B48" s="28"/>
+      <c r="C48" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>20078</v>
+      </c>
+      <c r="B49" s="28"/>
+      <c r="C49" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>20079</v>
+      </c>
+      <c r="B50" s="28"/>
+      <c r="C50" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>20080</v>
+      </c>
+      <c r="B51" s="28"/>
+      <c r="C51" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>20081</v>
+      </c>
+      <c r="B52" s="28"/>
+      <c r="C52" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>20082</v>
+      </c>
+      <c r="B53" s="29"/>
+      <c r="C53" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>20083</v>
+      </c>
+      <c r="B54" s="29"/>
+      <c r="C54" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>20084</v>
+      </c>
+      <c r="B55" s="29"/>
+      <c r="C55" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>20085</v>
+      </c>
+      <c r="B56" s="29"/>
+      <c r="C56" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>20086</v>
+      </c>
+      <c r="B57" s="29"/>
+      <c r="C57" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>20087</v>
+      </c>
+      <c r="B58" s="29"/>
+      <c r="C58" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>20088</v>
+      </c>
+      <c r="B59" s="30"/>
+      <c r="C59" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>20089</v>
+      </c>
+      <c r="B60" s="30"/>
+      <c r="C60" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>20090</v>
+      </c>
+      <c r="B61" s="30"/>
+      <c r="C61" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>20091</v>
+      </c>
+      <c r="B62" s="30"/>
+      <c r="C62" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>20092</v>
+      </c>
+      <c r="B63" s="30"/>
+      <c r="C63" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>20093</v>
+      </c>
+      <c r="B64" s="30"/>
+      <c r="C64" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>20094</v>
+      </c>
+      <c r="B65" s="31"/>
+      <c r="C65" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>20095</v>
+      </c>
+      <c r="B66" s="31"/>
+      <c r="C66" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>20096</v>
+      </c>
+      <c r="B67" s="31"/>
+      <c r="C67" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>20097</v>
+      </c>
+      <c r="B68" s="31"/>
+      <c r="C68" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>20098</v>
+      </c>
+      <c r="B69" s="31"/>
+      <c r="C69" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>20099</v>
+      </c>
+      <c r="B70" s="31"/>
+      <c r="C70" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>20100</v>
+      </c>
+      <c r="B71" s="32"/>
+      <c r="C71" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>20101</v>
+      </c>
+      <c r="B72" s="32"/>
+      <c r="C72" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>20102</v>
+      </c>
+      <c r="B73" s="32"/>
+      <c r="C73" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>20103</v>
+      </c>
+      <c r="B74" s="32"/>
+      <c r="C74" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>20104</v>
+      </c>
+      <c r="B75" s="32"/>
+      <c r="C75" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>20105</v>
+      </c>
+      <c r="B76" s="32"/>
+      <c r="C76" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>20106</v>
+      </c>
+      <c r="B77" s="33"/>
+      <c r="C77" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>20107</v>
+      </c>
+      <c r="B78" s="33"/>
+      <c r="C78" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>20108</v>
+      </c>
+      <c r="B79" s="33"/>
+      <c r="C79" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>20109</v>
+      </c>
+      <c r="B80" s="33"/>
+      <c r="C80" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>20110</v>
+      </c>
+      <c r="B81" s="33"/>
+      <c r="C81" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>20111</v>
+      </c>
+      <c r="B82" s="33"/>
+      <c r="C82" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>20112</v>
+      </c>
+      <c r="B83" s="28"/>
+      <c r="C83" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>20113</v>
+      </c>
+      <c r="B84" s="28"/>
+      <c r="C84" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>20114</v>
+      </c>
+      <c r="B85" s="28"/>
+      <c r="C85" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>20115</v>
+      </c>
+      <c r="B86" s="28"/>
+      <c r="C86" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>20116</v>
+      </c>
+      <c r="B87" s="28"/>
+      <c r="C87" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>20117</v>
+      </c>
+      <c r="B88" s="28"/>
+      <c r="C88" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>20118</v>
+      </c>
+      <c r="B89" s="34"/>
+      <c r="C89" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>20119</v>
+      </c>
+      <c r="B90" s="34"/>
+      <c r="C90" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>20120</v>
+      </c>
+      <c r="B91" s="34"/>
+      <c r="C91" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>20121</v>
+      </c>
+      <c r="B92" s="34"/>
+      <c r="C92" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>20122</v>
+      </c>
+      <c r="B93" s="34"/>
+      <c r="C93" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>20123</v>
+      </c>
+      <c r="B94" s="34"/>
+      <c r="C94" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>20028</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="F98" t="s">
+        <v>282</v>
+      </c>
+      <c r="G98" s="13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>20029</v>
+      </c>
+      <c r="B99" s="19"/>
+      <c r="C99" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="F99" t="s">
+        <v>283</v>
+      </c>
+      <c r="G99" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>20030</v>
+      </c>
+      <c r="B100" s="19"/>
+      <c r="C100" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="F100" t="s">
+        <v>284</v>
+      </c>
+      <c r="G100" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>20031</v>
+      </c>
+      <c r="B101" s="20"/>
+      <c r="C101" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="F101" t="s">
+        <v>285</v>
+      </c>
+      <c r="G101" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>20032</v>
+      </c>
+      <c r="B102" s="20"/>
+      <c r="C102" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="F102" t="s">
+        <v>286</v>
+      </c>
+      <c r="G102" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>20033</v>
+      </c>
+      <c r="B103" s="20"/>
+      <c r="C103" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="F103" t="s">
+        <v>287</v>
+      </c>
+      <c r="G103" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2405,7 +4501,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2419,7 +4515,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2436,7 +4532,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -2450,7 +4546,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -2464,7 +4560,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -2475,13 +4571,332 @@
         <v>40001</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D270D9-27FC-4901-80D2-4C5A4DFB7C2A}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>50001</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>50002</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>50003</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>50004</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>50005</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>50006</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>50007</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>50008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>50009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>50010</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CB22F1-D1C5-44DC-9DC8-1A51E67C4572}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>60001</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>60002</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>60003</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>60004</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>60005</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>60006</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>60007</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>307</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/Setting/data/数据表.xlsx
+++ b/Setting/data/数据表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\Clicker\Setting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE1B921-CD44-4D14-AC00-D7F02807E5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCF19D0-EE11-4E34-9367-9F6CB790C52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="527">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -506,12 +506,6 @@
     <t>Dew.png</t>
   </si>
   <si>
-    <t>KingWater.png</t>
-  </si>
-  <si>
-    <t>Rudy.png</t>
-  </si>
-  <si>
     <t>StoneMill.png</t>
   </si>
   <si>
@@ -1213,6 +1207,700 @@
   <si>
     <t>add[10006][coins][efficiency][1.1]</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>原子之心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荆棘之心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星辰之心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转基因石磨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇宙粉碎机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的眼睛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的眼睛，澄澈如水晶。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量子产额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表观自由空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利维坦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬眠合剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光荣孤立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生态位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛函</t>
+  </si>
+  <si>
+    <t>无穷维空间</t>
+  </si>
+  <si>
+    <t>微分流形</t>
+  </si>
+  <si>
+    <t>拓扑</t>
+  </si>
+  <si>
+    <t>同调</t>
+  </si>
+  <si>
+    <t>纤维丛</t>
+  </si>
+  <si>
+    <t>混沌动力学</t>
+  </si>
+  <si>
+    <t>奇异上同调群</t>
+  </si>
+  <si>
+    <t>巴拿赫空间</t>
+  </si>
+  <si>
+    <t>希尔伯特空间</t>
+  </si>
+  <si>
+    <t>索柏列夫空间</t>
+  </si>
+  <si>
+    <t>施瓦兹空间</t>
+  </si>
+  <si>
+    <t>波粒二象性</t>
+  </si>
+  <si>
+    <t>同伦提升</t>
+  </si>
+  <si>
+    <t>共轭泛函</t>
+  </si>
+  <si>
+    <t>险峻理想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主理想整环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>映射规约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红黑树堆栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗素茶壶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犹昧感</t>
+  </si>
+  <si>
+    <t>相位空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉格朗日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语义饱和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泊松括号</t>
+  </si>
+  <si>
+    <t>离散链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仿射联络</t>
+  </si>
+  <si>
+    <t>挠率张量</t>
+  </si>
+  <si>
+    <t>爱丁顿光度</t>
+  </si>
+  <si>
+    <t>布里渊区</t>
+  </si>
+  <si>
+    <t>远足算子</t>
+  </si>
+  <si>
+    <t>本场连续</t>
+  </si>
+  <si>
+    <t>假想观众</t>
+  </si>
+  <si>
+    <t>个人神话</t>
+  </si>
+  <si>
+    <t>等同索赔</t>
+  </si>
+  <si>
+    <t>角度追逐</t>
+  </si>
+  <si>
+    <t>退化案例</t>
+  </si>
+  <si>
+    <t>不定拓扑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相位同调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假面舞会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍曼转移</t>
+  </si>
+  <si>
+    <t>自伴算符</t>
+  </si>
+  <si>
+    <t>格式塔主义</t>
+  </si>
+  <si>
+    <t>单身复叶</t>
+  </si>
+  <si>
+    <t>沉默的螺旋</t>
+  </si>
+  <si>
+    <t>无知之幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷积神经</t>
+  </si>
+  <si>
+    <t>外泌体</t>
+  </si>
+  <si>
+    <t>亚临界萃取</t>
+  </si>
+  <si>
+    <t>时分多址</t>
+  </si>
+  <si>
+    <t>三驾马车</t>
+  </si>
+  <si>
+    <t>纳什均衡</t>
+  </si>
+  <si>
+    <t>去势幽闭</t>
+  </si>
+  <si>
+    <t>套层结构</t>
+  </si>
+  <si>
+    <t>下降行动</t>
+  </si>
+  <si>
+    <t>基尼系数</t>
+  </si>
+  <si>
+    <t>芒阿粒子</t>
+  </si>
+  <si>
+    <t>波动率微笑</t>
+  </si>
+  <si>
+    <t>波动率皱眉</t>
+  </si>
+  <si>
+    <t>own[10001]613</t>
+  </si>
+  <si>
+    <t>own[10001]614</t>
+  </si>
+  <si>
+    <t>own[10001]615</t>
+  </si>
+  <si>
+    <t>own[10001]616</t>
+  </si>
+  <si>
+    <t>own[10001]617</t>
+  </si>
+  <si>
+    <t>own[10001]618</t>
+  </si>
+  <si>
+    <t>own[10001]619</t>
+  </si>
+  <si>
+    <t>own[10001]620</t>
+  </si>
+  <si>
+    <t>own[10001]621</t>
+  </si>
+  <si>
+    <t>own[10001]622</t>
+  </si>
+  <si>
+    <t>own[10001]623</t>
+  </si>
+  <si>
+    <t>own[10001]624</t>
+  </si>
+  <si>
+    <t>own[10001]625</t>
+  </si>
+  <si>
+    <t>own[10001]626</t>
+  </si>
+  <si>
+    <t>own[10001]627</t>
+  </si>
+  <si>
+    <t>own[10001]628</t>
+  </si>
+  <si>
+    <t>own[10001]629</t>
+  </si>
+  <si>
+    <t>own[10001]630</t>
+  </si>
+  <si>
+    <t>own[10001]631</t>
+  </si>
+  <si>
+    <t>own[10001]632</t>
+  </si>
+  <si>
+    <t>own[10001]633</t>
+  </si>
+  <si>
+    <t>own[10001]634</t>
+  </si>
+  <si>
+    <t>own[10001]635</t>
+  </si>
+  <si>
+    <t>own[10001]636</t>
+  </si>
+  <si>
+    <t>own[10001]637</t>
+  </si>
+  <si>
+    <t>own[10001]638</t>
+  </si>
+  <si>
+    <t>own[10001]639</t>
+  </si>
+  <si>
+    <t>own[10001]640</t>
+  </si>
+  <si>
+    <t>own[10001]641</t>
+  </si>
+  <si>
+    <t>own[10001]642</t>
+  </si>
+  <si>
+    <t>own[10001]643</t>
+  </si>
+  <si>
+    <t>own[10001]644</t>
+  </si>
+  <si>
+    <t>own[10001]645</t>
+  </si>
+  <si>
+    <t>own[10001]646</t>
+  </si>
+  <si>
+    <t>own[10001]647</t>
+  </si>
+  <si>
+    <t>own[10001]648</t>
+  </si>
+  <si>
+    <t>own[10001]649</t>
+  </si>
+  <si>
+    <t>own[10001]650</t>
+  </si>
+  <si>
+    <t>own[10001]651</t>
+  </si>
+  <si>
+    <t>own[10001]652</t>
+  </si>
+  <si>
+    <t>own[10001]653</t>
+  </si>
+  <si>
+    <t>own[10001]654</t>
+  </si>
+  <si>
+    <t>own[10001]655</t>
+  </si>
+  <si>
+    <t>own[10001]656</t>
+  </si>
+  <si>
+    <t>own[10001]657</t>
+  </si>
+  <si>
+    <t>own[10001]658</t>
+  </si>
+  <si>
+    <t>own[10001]659</t>
+  </si>
+  <si>
+    <t>own[10001]660</t>
+  </si>
+  <si>
+    <t>own[10001]661</t>
+  </si>
+  <si>
+    <t>own[10001]662</t>
+  </si>
+  <si>
+    <t>own[10001]663</t>
+  </si>
+  <si>
+    <t>own[10001]664</t>
+  </si>
+  <si>
+    <t>own[10001]665</t>
+  </si>
+  <si>
+    <t>own[10001]666</t>
+  </si>
+  <si>
+    <t>own[10001]667</t>
+  </si>
+  <si>
+    <t>own[10001]668</t>
+  </si>
+  <si>
+    <t>own[10001]669</t>
+  </si>
+  <si>
+    <t>own[10001]670</t>
+  </si>
+  <si>
+    <t>own[10001]671</t>
+  </si>
+  <si>
+    <t>own[10001]672</t>
+  </si>
+  <si>
+    <t>own[10001]673</t>
+  </si>
+  <si>
+    <t>own[10001]674</t>
+  </si>
+  <si>
+    <t>own[10001]675</t>
+  </si>
+  <si>
+    <t>own[10001]676</t>
+  </si>
+  <si>
+    <t>own[10001]677</t>
+  </si>
+  <si>
+    <t>own[10001]678</t>
+  </si>
+  <si>
+    <t>own[10001]679</t>
+  </si>
+  <si>
+    <t>own[10001]680</t>
+  </si>
+  <si>
+    <t>own[10001]681</t>
+  </si>
+  <si>
+    <t>own[10001]682</t>
+  </si>
+  <si>
+    <t>own[10001]683</t>
+  </si>
+  <si>
+    <t>own[10001]684</t>
+  </si>
+  <si>
+    <t>own[10001]685</t>
+  </si>
+  <si>
+    <t>own[10001]686</t>
+  </si>
+  <si>
+    <t>own[10001]687</t>
+  </si>
+  <si>
+    <t>own[10001]688</t>
+  </si>
+  <si>
+    <t>own[10001]689</t>
+  </si>
+  <si>
+    <t>own[10001]690</t>
+  </si>
+  <si>
+    <t>own[10001]691</t>
+  </si>
+  <si>
+    <t>own[10001]692</t>
+  </si>
+  <si>
+    <t>own[10001]693</t>
+  </si>
+  <si>
+    <t>own[10001]694</t>
+  </si>
+  <si>
+    <t>own[10001]695</t>
+  </si>
+  <si>
+    <t>own[10001]696</t>
+  </si>
+  <si>
+    <t>own[10001]697</t>
+  </si>
+  <si>
+    <t>own[10001]698</t>
+  </si>
+  <si>
+    <t>own[10001]699</t>
+  </si>
+  <si>
+    <t>own[10001]700</t>
+  </si>
+  <si>
+    <t>own[10001]701</t>
+  </si>
+  <si>
+    <t>own[10001]702</t>
+  </si>
+  <si>
+    <t>Rudy.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingWater.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dew.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pentagram.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sun.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moon.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4|7</t>
+  </si>
+  <si>
+    <t>7|7</t>
+  </si>
+  <si>
+    <t>7|8</t>
+  </si>
+  <si>
+    <t>7|10</t>
+  </si>
+  <si>
+    <t>7|12</t>
+  </si>
+  <si>
+    <t>7|14</t>
+  </si>
+  <si>
+    <t>2|8</t>
+  </si>
+  <si>
+    <t>1|9</t>
+  </si>
+  <si>
+    <t>1|10</t>
+  </si>
+  <si>
+    <t>1|12</t>
+  </si>
+  <si>
+    <t>1|14</t>
+  </si>
+  <si>
+    <t>1|16</t>
+  </si>
+  <si>
+    <t>3.3|9</t>
+  </si>
+  <si>
+    <t>1.6|10</t>
+  </si>
+  <si>
+    <t>1.6|11</t>
+  </si>
+  <si>
+    <t>1.6|16</t>
+  </si>
+  <si>
+    <t>1.6|18</t>
+  </si>
+  <si>
+    <t>1.6|22</t>
+  </si>
+  <si>
+    <t>5.1|10</t>
+  </si>
+  <si>
+    <t>2.5|11</t>
+  </si>
+  <si>
+    <t>2.5|14</t>
+  </si>
+  <si>
+    <t>2.5|16</t>
+  </si>
+  <si>
+    <t>2.5|18</t>
+  </si>
+  <si>
+    <t>2.5|21</t>
+  </si>
+  <si>
+    <t>7.5|11</t>
+  </si>
+  <si>
+    <t>3.7|12</t>
+  </si>
+  <si>
+    <t>3.7|13</t>
+  </si>
+  <si>
+    <t>3.7|15</t>
+  </si>
+  <si>
+    <t>3.7|17</t>
+  </si>
+  <si>
+    <t>3.7|20</t>
+  </si>
+  <si>
+    <t>1|13</t>
+  </si>
+  <si>
+    <t>5|13</t>
+  </si>
+  <si>
+    <t>5|14</t>
+  </si>
+  <si>
+    <t>5|16</t>
+  </si>
+  <si>
+    <t>5|18</t>
+  </si>
+  <si>
+    <t>5|19</t>
+  </si>
+  <si>
+    <t>1.4|14</t>
+  </si>
+  <si>
+    <t>7|15</t>
+  </si>
+  <si>
+    <t>7|17</t>
+  </si>
+  <si>
+    <t>7|19</t>
+  </si>
+  <si>
+    <t>7|21</t>
+  </si>
+  <si>
+    <t>7|24</t>
+  </si>
+  <si>
+    <t>神秘药剂</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>“抛开剂量谈毒性就是耍流氓” 金币 +900000。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>“抛开剂量谈毒性就是耍流氓” 金币 -900000。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10002][bonus][efficiency][900000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce[10002][coins][efficiency][900000]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>化学家</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼金术士认为化学家拙略的模仿他们。+7777777金币。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10002][bonus][efficiency][7777777]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1393,7 +2081,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1401,12 +2089,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1429,7 +2147,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
@@ -1444,6 +2161,17 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1722,8 +2450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E93042-FDD7-4095-BDE6-2D807EF660F2}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A12" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1803,7 +2531,7 @@
         <v>95</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>25</v>
@@ -1812,7 +2540,7 @@
         <v>45</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1823,7 +2551,7 @@
         <v>88</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>26</v>
@@ -1832,7 +2560,7 @@
         <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1843,7 +2571,7 @@
         <v>89</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>27</v>
@@ -1852,7 +2580,7 @@
         <v>63</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1863,7 +2591,7 @@
         <v>90</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>28</v>
@@ -1872,7 +2600,7 @@
         <v>64</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1883,7 +2611,7 @@
         <v>104</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>29</v>
@@ -1892,7 +2620,7 @@
         <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1903,7 +2631,7 @@
         <v>97</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>44</v>
@@ -1912,7 +2640,7 @@
         <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1923,7 +2651,7 @@
         <v>111</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>43</v>
@@ -1931,8 +2659,8 @@
       <c r="E10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F10" t="s">
-        <v>122</v>
+      <c r="F10" s="13" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1943,7 +2671,7 @@
         <v>112</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>42</v>
@@ -1951,8 +2679,8 @@
       <c r="E11" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F11" t="s">
-        <v>121</v>
+      <c r="F11" s="13" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1963,7 +2691,7 @@
         <v>113</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>41</v>
@@ -1971,8 +2699,8 @@
       <c r="E12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F12" t="s">
-        <v>120</v>
+      <c r="F12" s="13" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1983,7 +2711,7 @@
         <v>110</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>40</v>
@@ -1991,8 +2719,8 @@
       <c r="E13" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F13" t="s">
-        <v>119</v>
+      <c r="F13" s="13" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2003,7 +2731,7 @@
         <v>108</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>39</v>
@@ -2011,8 +2739,8 @@
       <c r="E14" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F14" t="s">
-        <v>118</v>
+      <c r="F14" s="13" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2023,7 +2751,7 @@
         <v>109</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>38</v>
@@ -2031,8 +2759,8 @@
       <c r="E15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F15" t="s">
-        <v>117</v>
+      <c r="F15" s="13" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2043,7 +2771,7 @@
         <v>91</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>37</v>
@@ -2052,7 +2780,7 @@
         <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2063,7 +2791,7 @@
         <v>96</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>36</v>
@@ -2072,7 +2800,7 @@
         <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2083,7 +2811,7 @@
         <v>94</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>35</v>
@@ -2092,7 +2820,7 @@
         <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2103,7 +2831,7 @@
         <v>93</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>34</v>
@@ -2112,7 +2840,7 @@
         <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2123,7 +2851,7 @@
         <v>92</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>33</v>
@@ -2132,7 +2860,7 @@
         <v>58</v>
       </c>
       <c r="F20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2143,7 +2871,7 @@
         <v>105</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>32</v>
@@ -2152,7 +2880,7 @@
         <v>59</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2163,7 +2891,7 @@
         <v>106</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>31</v>
@@ -2172,7 +2900,7 @@
         <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2183,7 +2911,7 @@
         <v>107</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>30</v>
@@ -2192,7 +2920,7 @@
         <v>61</v>
       </c>
       <c r="F23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2286,19 +3014,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E051483D-BA96-4FF1-9EBC-33D32BF815CB}">
   <dimension ref="A1:G132"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD36"/>
+    <sheetView topLeftCell="A15" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.75" customWidth="1"/>
     <col min="4" max="4" width="6.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="16.875" customWidth="1"/>
+    <col min="7" max="7" width="29.375" style="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
@@ -2320,7 +3048,7 @@
       <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="42" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2343,7 +3071,7 @@
       <c r="F2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="43" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2366,7 +3094,7 @@
       <c r="F3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="43" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2375,22 +3103,22 @@
         <v>20001</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>82</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F4" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s">
-        <v>174</v>
+      <c r="G4" s="44" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2398,22 +3126,22 @@
         <v>20002</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>83</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
       </c>
-      <c r="G5" t="s">
-        <v>181</v>
+      <c r="G5" s="44" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2421,22 +3149,22 @@
         <v>20003</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>157</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>159</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>84</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F6" t="s">
         <v>69</v>
       </c>
-      <c r="G6" t="s">
-        <v>175</v>
+      <c r="G6" s="44" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2447,10 +3175,10 @@
         <v>114</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>16</v>
@@ -2458,8 +3186,8 @@
       <c r="F7" t="s">
         <v>73</v>
       </c>
-      <c r="G7" t="s">
-        <v>179</v>
+      <c r="G7" s="44" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2470,10 +3198,10 @@
         <v>115</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>16</v>
@@ -2481,8 +3209,8 @@
       <c r="F8" t="s">
         <v>74</v>
       </c>
-      <c r="G8" t="s">
-        <v>179</v>
+      <c r="G8" s="44" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2493,10 +3221,10 @@
         <v>116</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>16</v>
@@ -2504,8 +3232,8 @@
       <c r="F9" t="s">
         <v>75</v>
       </c>
-      <c r="G9" t="s">
-        <v>179</v>
+      <c r="G9" s="44" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2513,13 +3241,13 @@
         <v>20007</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>16</v>
@@ -2527,8 +3255,8 @@
       <c r="F10" t="s">
         <v>76</v>
       </c>
-      <c r="G10" t="s">
-        <v>216</v>
+      <c r="G10" s="44" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2536,13 +3264,13 @@
         <v>20008</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>16</v>
@@ -2550,8 +3278,8 @@
       <c r="F11" t="s">
         <v>77</v>
       </c>
-      <c r="G11" t="s">
-        <v>216</v>
+      <c r="G11" s="44" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2559,13 +3287,13 @@
         <v>20009</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>16</v>
@@ -2573,8 +3301,8 @@
       <c r="F12" t="s">
         <v>78</v>
       </c>
-      <c r="G12" t="s">
-        <v>216</v>
+      <c r="G12" s="44" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2582,22 +3310,22 @@
         <v>20010</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F13" t="s">
         <v>79</v>
       </c>
-      <c r="G13" t="s">
-        <v>176</v>
+      <c r="G13" s="44" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2605,22 +3333,22 @@
         <v>20011</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F14" t="s">
         <v>80</v>
       </c>
-      <c r="G14" t="s">
-        <v>215</v>
+      <c r="G14" s="44" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2628,22 +3356,22 @@
         <v>20012</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F15" t="s">
         <v>81</v>
       </c>
-      <c r="G15" t="s">
-        <v>176</v>
+      <c r="G15" s="44" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2651,22 +3379,22 @@
         <v>20013</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F16" t="s">
         <v>81</v>
       </c>
-      <c r="G16" t="s">
-        <v>214</v>
+      <c r="G16" s="44" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2674,22 +3402,22 @@
         <v>20014</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F17" t="s">
         <v>81</v>
       </c>
-      <c r="G17" t="s">
-        <v>214</v>
+      <c r="G17" s="44" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2697,22 +3425,22 @@
         <v>20015</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F18" t="s">
         <v>81</v>
       </c>
-      <c r="G18" t="s">
-        <v>176</v>
+      <c r="G18" s="44" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -2720,22 +3448,22 @@
         <v>20016</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F19" t="s">
         <v>81</v>
       </c>
-      <c r="G19" t="s">
-        <v>211</v>
+      <c r="G19" s="44" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -2743,22 +3471,22 @@
         <v>20017</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C20" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>194</v>
-      </c>
       <c r="E20" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F20" t="s">
         <v>81</v>
       </c>
-      <c r="G20" t="s">
-        <v>211</v>
+      <c r="G20" s="44" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -2766,22 +3494,22 @@
         <v>20018</v>
       </c>
       <c r="B21" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>192</v>
-      </c>
       <c r="D21" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F21" t="s">
         <v>81</v>
       </c>
-      <c r="G21" t="s">
-        <v>212</v>
+      <c r="G21" s="44" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2789,22 +3517,22 @@
         <v>20019</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F22" t="s">
         <v>81</v>
       </c>
-      <c r="G22" t="s">
-        <v>212</v>
+      <c r="G22" s="44" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -2812,22 +3540,22 @@
         <v>20020</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F23" t="s">
         <v>81</v>
       </c>
-      <c r="G23" t="s">
-        <v>213</v>
+      <c r="G23" s="44" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -2835,22 +3563,22 @@
         <v>20021</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F24" t="s">
         <v>81</v>
       </c>
-      <c r="G24" t="s">
-        <v>213</v>
+      <c r="G24" s="44" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -2858,22 +3586,22 @@
         <v>20022</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
+      </c>
+      <c r="G25" s="43" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -2881,22 +3609,22 @@
         <v>20023</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F26" t="s">
-        <v>277</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>288</v>
+        <v>275</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -2904,22 +3632,22 @@
         <v>20024</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F27" t="s">
-        <v>278</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>288</v>
+        <v>276</v>
+      </c>
+      <c r="G27" s="43" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -2927,22 +3655,22 @@
         <v>20025</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F28" t="s">
-        <v>279</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>288</v>
+        <v>277</v>
+      </c>
+      <c r="G28" s="43" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -2950,22 +3678,22 @@
         <v>20026</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F29" t="s">
-        <v>280</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>288</v>
+        <v>278</v>
+      </c>
+      <c r="G29" s="43" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -2973,51 +3701,1155 @@
         <v>20027</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C30" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="F30" t="s">
+        <v>279</v>
+      </c>
+      <c r="G30" s="43" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>20028</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="F31" t="s">
+        <v>280</v>
+      </c>
+      <c r="G31" s="43" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>20029</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="F32" t="s">
+        <v>281</v>
+      </c>
+      <c r="G32" s="44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>20030</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="F33" t="s">
+        <v>282</v>
+      </c>
+      <c r="G33" s="44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>20031</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="F34" t="s">
+        <v>283</v>
+      </c>
+      <c r="G34" s="44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>20032</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="F35" t="s">
+        <v>284</v>
+      </c>
+      <c r="G35" s="44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>20033</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="F36" t="s">
+        <v>285</v>
+      </c>
+      <c r="G36" s="44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>20034</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="E30" s="13" t="s">
+      <c r="D37" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="F30" t="s">
-        <v>281</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>288</v>
+      <c r="F37" t="s">
+        <v>381</v>
+      </c>
+      <c r="G37" s="44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>20035</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="F38" t="s">
+        <v>382</v>
+      </c>
+      <c r="G38" s="44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>20036</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="F39" t="s">
+        <v>383</v>
+      </c>
+      <c r="G39" s="44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>20037</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="F40" t="s">
+        <v>384</v>
+      </c>
+      <c r="G40" s="44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>20038</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="F41" t="s">
+        <v>385</v>
+      </c>
+      <c r="G41" s="44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>20039</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="F42" t="s">
+        <v>386</v>
+      </c>
+      <c r="G42" s="44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>20040</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="F43" t="s">
+        <v>387</v>
+      </c>
+      <c r="G43" s="43" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>20041</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="F44" t="s">
+        <v>388</v>
+      </c>
+      <c r="G44" s="43" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>20042</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="F45" t="s">
+        <v>389</v>
+      </c>
+      <c r="G45" s="43" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>20043</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="F46" t="s">
+        <v>390</v>
+      </c>
+      <c r="G46" s="43" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>20044</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="F47" t="s">
+        <v>391</v>
+      </c>
+      <c r="G47" s="43" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>20045</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="F48" t="s">
+        <v>392</v>
+      </c>
+      <c r="G48" s="43" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>20046</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="F49" t="s">
+        <v>393</v>
+      </c>
+      <c r="G49" s="43" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>20047</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="F50" t="s">
+        <v>394</v>
+      </c>
+      <c r="G50" s="43" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>20048</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="F51" t="s">
+        <v>395</v>
+      </c>
+      <c r="G51" s="43" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>20049</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="F52" t="s">
+        <v>396</v>
+      </c>
+      <c r="G52" s="43" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>20050</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="F53" t="s">
+        <v>397</v>
+      </c>
+      <c r="G53" s="43" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>20051</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="F54" t="s">
+        <v>398</v>
+      </c>
+      <c r="G54" s="43" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>20052</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="F55" t="s">
+        <v>399</v>
+      </c>
+      <c r="G55" s="44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>20053</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="F56" t="s">
+        <v>400</v>
+      </c>
+      <c r="G56" s="44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>20054</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="F57" t="s">
+        <v>401</v>
+      </c>
+      <c r="G57" s="44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>20055</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="F58" t="s">
+        <v>402</v>
+      </c>
+      <c r="G58" s="44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>20056</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="F59" t="s">
+        <v>403</v>
+      </c>
+      <c r="G59" s="44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>20057</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="F60" t="s">
+        <v>404</v>
+      </c>
+      <c r="G60" s="44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>20058</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="F61" t="s">
+        <v>405</v>
+      </c>
+      <c r="G61" s="44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>20059</v>
+      </c>
+      <c r="B62" s="41" t="s">
+        <v>361</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="F62" t="s">
+        <v>406</v>
+      </c>
+      <c r="G62" s="44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>20060</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="F63" t="s">
+        <v>407</v>
+      </c>
+      <c r="G63" s="44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>20061</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="F64" t="s">
+        <v>408</v>
+      </c>
+      <c r="G64" s="44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>20062</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="F65" t="s">
+        <v>409</v>
+      </c>
+      <c r="G65" s="44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>20063</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="F66" t="s">
+        <v>410</v>
+      </c>
+      <c r="G66" s="44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>20064</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="F67" t="s">
+        <v>411</v>
+      </c>
+      <c r="G67" s="44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>20065</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="F68" t="s">
+        <v>412</v>
+      </c>
+      <c r="G68" s="44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>20066</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="F69" t="s">
+        <v>413</v>
+      </c>
+      <c r="G69" s="44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>20067</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="F70" t="s">
+        <v>414</v>
+      </c>
+      <c r="G70" s="44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>20068</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="F71" t="s">
+        <v>415</v>
+      </c>
+      <c r="G71" s="44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>20069</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="F72" t="s">
+        <v>416</v>
+      </c>
+      <c r="G72" s="44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>20070</v>
+      </c>
+      <c r="B73" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="F73" t="s">
+        <v>417</v>
+      </c>
+      <c r="G73" s="44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>20071</v>
+      </c>
+      <c r="B74" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="F74" t="s">
+        <v>418</v>
+      </c>
+      <c r="G74" s="44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>20072</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="F75" t="s">
+        <v>419</v>
+      </c>
+      <c r="G75" s="44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>20073</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="F76" t="s">
+        <v>420</v>
+      </c>
+      <c r="G76" s="44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>20074</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="F77" t="s">
+        <v>421</v>
+      </c>
+      <c r="G77" s="44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>20075</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="F78" t="s">
+        <v>422</v>
+      </c>
+      <c r="G78" s="44" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B127" s="34"/>
+      <c r="B127" s="33"/>
       <c r="C127" s="13"/>
       <c r="E127" s="13"/>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B128" s="34"/>
+      <c r="B128" s="33"/>
       <c r="C128" s="13"/>
       <c r="E128" s="13"/>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B129" s="34"/>
+      <c r="B129" s="33"/>
       <c r="C129" s="13"/>
       <c r="E129" s="13"/>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B130" s="34"/>
+      <c r="B130" s="33"/>
       <c r="C130" s="13"/>
       <c r="E130" s="13"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B131" s="34"/>
+      <c r="B131" s="33"/>
       <c r="C131" s="13"/>
       <c r="E131" s="13"/>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B132" s="34"/>
+      <c r="B132" s="33"/>
       <c r="C132" s="13"/>
       <c r="E132" s="13"/>
     </row>
@@ -3029,10 +4861,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7E6B59-2776-4BF4-820D-1188B7AE0776}">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3042,10 +4874,10 @@
         <v>20004</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>85</v>
@@ -3057,7 +4889,7 @@
         <v>70</v>
       </c>
       <c r="G1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3065,10 +4897,10 @@
         <v>20005</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>86</v>
@@ -3080,7 +4912,7 @@
         <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3088,10 +4920,10 @@
         <v>20006</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>87</v>
@@ -3103,1306 +4935,872 @@
         <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>20034</v>
-      </c>
-      <c r="B5" s="22"/>
+        <v>20076</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>373</v>
+      </c>
       <c r="C5" s="13" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>250</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="F5" t="s">
+        <v>423</v>
+      </c>
+      <c r="G5" s="44"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>20035</v>
-      </c>
-      <c r="B6" s="23"/>
+        <v>20077</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>374</v>
+      </c>
       <c r="C6" s="13" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>250</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="F6" t="s">
+        <v>424</v>
+      </c>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>20036</v>
-      </c>
-      <c r="B7" s="23"/>
+        <v>20078</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>375</v>
+      </c>
       <c r="C7" s="13" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="s">
-        <v>250</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="F7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G7" s="44"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>20037</v>
-      </c>
-      <c r="B8" s="23"/>
+        <v>20079</v>
+      </c>
+      <c r="B8" s="27"/>
       <c r="C8" s="13" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13" t="s">
-        <v>250</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="F8" t="s">
+        <v>426</v>
+      </c>
+      <c r="G8" s="44"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>20038</v>
-      </c>
-      <c r="B9" s="23"/>
+        <v>20080</v>
+      </c>
+      <c r="B9" s="27"/>
       <c r="C9" s="13" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13" t="s">
-        <v>250</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="F9" t="s">
+        <v>427</v>
+      </c>
+      <c r="G9" s="44"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>20039</v>
-      </c>
-      <c r="B10" s="23"/>
+        <v>20081</v>
+      </c>
+      <c r="B10" s="27"/>
       <c r="C10" s="13" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13" t="s">
-        <v>250</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="F10" t="s">
+        <v>428</v>
+      </c>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>20040</v>
-      </c>
-      <c r="B11" s="1"/>
+        <v>20082</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>318</v>
+      </c>
       <c r="C11" s="13" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13" t="s">
-        <v>251</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="F11" t="s">
+        <v>429</v>
+      </c>
+      <c r="G11" s="44"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>20041</v>
-      </c>
-      <c r="B12" s="1"/>
+        <v>20083</v>
+      </c>
+      <c r="B12" s="28"/>
       <c r="C12" s="13" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13" t="s">
-        <v>251</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="F12" t="s">
+        <v>430</v>
+      </c>
+      <c r="G12" s="44"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>20042</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>20084</v>
+      </c>
+      <c r="B13" s="28"/>
       <c r="C13" s="13" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="s">
-        <v>251</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="F13" t="s">
+        <v>431</v>
+      </c>
+      <c r="G13" s="44"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>20043</v>
-      </c>
-      <c r="B14" s="1"/>
+        <v>20085</v>
+      </c>
+      <c r="B14" s="28"/>
       <c r="C14" s="13" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13" t="s">
-        <v>251</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="F14" t="s">
+        <v>432</v>
+      </c>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>20044</v>
-      </c>
-      <c r="B15" s="1"/>
+        <v>20086</v>
+      </c>
+      <c r="B15" s="28"/>
       <c r="C15" s="13" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="s">
-        <v>251</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="F15" t="s">
+        <v>433</v>
+      </c>
+      <c r="G15" s="44"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>20045</v>
-      </c>
-      <c r="B16" s="1"/>
+        <v>20087</v>
+      </c>
+      <c r="B16" s="28"/>
       <c r="C16" s="13" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+      <c r="F16" t="s">
+        <v>434</v>
+      </c>
+      <c r="G16" s="44"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>20046</v>
-      </c>
-      <c r="B17" s="24"/>
+        <v>20088</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>339</v>
+      </c>
       <c r="C17" s="13" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+      <c r="F17" t="s">
+        <v>435</v>
+      </c>
+      <c r="G17" s="44"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>20047</v>
-      </c>
-      <c r="B18" s="24"/>
+        <v>20089</v>
+      </c>
+      <c r="B18" s="29"/>
       <c r="C18" s="13" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+      <c r="F18" t="s">
+        <v>436</v>
+      </c>
+      <c r="G18" s="44"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>20048</v>
-      </c>
-      <c r="B19" s="24"/>
+        <v>20090</v>
+      </c>
+      <c r="B19" s="29"/>
       <c r="C19" s="13" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+      <c r="F19" t="s">
+        <v>437</v>
+      </c>
+      <c r="G19" s="44"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>20049</v>
-      </c>
-      <c r="B20" s="24"/>
+        <v>20091</v>
+      </c>
+      <c r="B20" s="29"/>
       <c r="C20" s="13" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+      <c r="F20" t="s">
+        <v>438</v>
+      </c>
+      <c r="G20" s="44"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>20050</v>
-      </c>
-      <c r="B21" s="24"/>
+        <v>20092</v>
+      </c>
+      <c r="B21" s="29"/>
       <c r="C21" s="13" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+      <c r="F21" t="s">
+        <v>439</v>
+      </c>
+      <c r="G21" s="44"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>20051</v>
-      </c>
-      <c r="B22" s="24"/>
+        <v>20093</v>
+      </c>
+      <c r="B22" s="29"/>
       <c r="C22" s="13" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+      <c r="F22" t="s">
+        <v>440</v>
+      </c>
+      <c r="G22" s="44"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>20052</v>
-      </c>
-      <c r="B23" s="18"/>
+        <v>20094</v>
+      </c>
+      <c r="B23" s="30"/>
       <c r="C23" s="13" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="F23" t="s">
+        <v>441</v>
+      </c>
+      <c r="G23" s="44"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>20053</v>
-      </c>
-      <c r="B24" s="18"/>
+        <v>20095</v>
+      </c>
+      <c r="B24" s="30"/>
       <c r="C24" s="13" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="F24" t="s">
+        <v>442</v>
+      </c>
+      <c r="G24" s="44"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>20054</v>
-      </c>
-      <c r="B25" s="18"/>
+        <v>20096</v>
+      </c>
+      <c r="B25" s="30"/>
       <c r="C25" s="13" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="F25" t="s">
+        <v>443</v>
+      </c>
+      <c r="G25" s="44"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>20055</v>
-      </c>
-      <c r="B26" s="18"/>
+        <v>20097</v>
+      </c>
+      <c r="B26" s="30"/>
       <c r="C26" s="13" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="F26" t="s">
+        <v>444</v>
+      </c>
+      <c r="G26" s="44"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>20056</v>
-      </c>
-      <c r="B27" s="18"/>
+        <v>20098</v>
+      </c>
+      <c r="B27" s="30"/>
       <c r="C27" s="13" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="F27" t="s">
+        <v>445</v>
+      </c>
+      <c r="G27" s="44"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>20057</v>
-      </c>
-      <c r="B28" s="18"/>
+        <v>20099</v>
+      </c>
+      <c r="B28" s="30"/>
       <c r="C28" s="13" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="F28" t="s">
+        <v>446</v>
+      </c>
+      <c r="G28" s="44"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>20058</v>
-      </c>
-      <c r="B29" s="25"/>
+        <v>20100</v>
+      </c>
+      <c r="B29" s="31"/>
       <c r="C29" s="13" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+      <c r="F29" t="s">
+        <v>447</v>
+      </c>
+      <c r="G29" s="44"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>20059</v>
-      </c>
-      <c r="B30" s="25"/>
+        <v>20101</v>
+      </c>
+      <c r="B30" s="31"/>
       <c r="C30" s="13" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+      <c r="F30" t="s">
+        <v>448</v>
+      </c>
+      <c r="G30" s="44"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>20060</v>
-      </c>
-      <c r="B31" s="25"/>
+        <v>20102</v>
+      </c>
+      <c r="B31" s="31"/>
       <c r="C31" s="13" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+      <c r="F31" t="s">
+        <v>449</v>
+      </c>
+      <c r="G31" s="44"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>20061</v>
-      </c>
-      <c r="B32" s="25"/>
+        <v>20103</v>
+      </c>
+      <c r="B32" s="31"/>
       <c r="C32" s="13" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+      <c r="F32" t="s">
+        <v>450</v>
+      </c>
+      <c r="G32" s="44"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>20062</v>
-      </c>
-      <c r="B33" s="25"/>
+        <v>20104</v>
+      </c>
+      <c r="B33" s="31"/>
       <c r="C33" s="13" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+      <c r="F33" t="s">
+        <v>451</v>
+      </c>
+      <c r="G33" s="44"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>20063</v>
-      </c>
-      <c r="B34" s="25"/>
+        <v>20105</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>337</v>
+      </c>
       <c r="C34" s="13" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+      <c r="F34" t="s">
+        <v>452</v>
+      </c>
+      <c r="G34" s="44"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>20064</v>
-      </c>
-      <c r="B35" s="26"/>
+        <v>20106</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>322</v>
+      </c>
       <c r="C35" s="13" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="F35" t="s">
+        <v>453</v>
+      </c>
+      <c r="G35" s="44"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>20065</v>
-      </c>
-      <c r="B36" s="26"/>
+        <v>20107</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>325</v>
+      </c>
       <c r="C36" s="13" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="F36" t="s">
+        <v>454</v>
+      </c>
+      <c r="G36" s="44"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>20066</v>
-      </c>
-      <c r="B37" s="26"/>
+        <v>20108</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>326</v>
+      </c>
       <c r="C37" s="13" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="F37" t="s">
+        <v>455</v>
+      </c>
+      <c r="G37" s="44"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>20067</v>
-      </c>
-      <c r="B38" s="26"/>
+        <v>20109</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>327</v>
+      </c>
       <c r="C38" s="13" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="F38" t="s">
+        <v>456</v>
+      </c>
+      <c r="G38" s="44"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>20068</v>
-      </c>
-      <c r="B39" s="26"/>
+        <v>20110</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>328</v>
+      </c>
       <c r="C39" s="13" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="F39" t="s">
+        <v>457</v>
+      </c>
+      <c r="G39" s="44"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>20069</v>
-      </c>
-      <c r="B40" s="26"/>
+        <v>20111</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>338</v>
+      </c>
       <c r="C40" s="13" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="F40" t="s">
+        <v>458</v>
+      </c>
+      <c r="G40" s="44"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>20070</v>
-      </c>
-      <c r="B41" s="27"/>
+        <v>20112</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>316</v>
+      </c>
       <c r="C41" s="13" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="F41" t="s">
+        <v>459</v>
+      </c>
+      <c r="G41" s="44"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>20071</v>
-      </c>
-      <c r="B42" s="27"/>
+        <v>20113</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>324</v>
+      </c>
       <c r="C42" s="13" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="F42" t="s">
+        <v>460</v>
+      </c>
+      <c r="G42" s="44"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>20072</v>
-      </c>
-      <c r="B43" s="27"/>
+        <v>20114</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>329</v>
+      </c>
       <c r="C43" s="13" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="F43" t="s">
+        <v>461</v>
+      </c>
+      <c r="G43" s="44"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>20073</v>
-      </c>
-      <c r="B44" s="27"/>
+        <v>20115</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>334</v>
+      </c>
       <c r="C44" s="13" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="F44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G44" s="44"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>20074</v>
-      </c>
-      <c r="B45" s="27"/>
+        <v>20116</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>335</v>
+      </c>
       <c r="C45" s="13" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="F45" t="s">
+        <v>463</v>
+      </c>
+      <c r="G45" s="44"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>20075</v>
-      </c>
-      <c r="B46" s="27"/>
+        <v>20117</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>336</v>
+      </c>
       <c r="C46" s="13" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="F46" t="s">
+        <v>464</v>
+      </c>
+      <c r="G46" s="44"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>20076</v>
-      </c>
-      <c r="B47" s="28"/>
+        <v>20118</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>317</v>
+      </c>
       <c r="C47" s="13" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="13" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>465</v>
+      </c>
+      <c r="G47" s="44"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>20077</v>
-      </c>
-      <c r="B48" s="28"/>
+        <v>20119</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>323</v>
+      </c>
       <c r="C48" s="13" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>466</v>
+      </c>
+      <c r="G48" s="44"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>20078</v>
-      </c>
-      <c r="B49" s="28"/>
+        <v>20120</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>330</v>
+      </c>
       <c r="C49" s="13" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>467</v>
+      </c>
+      <c r="G49" s="44"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>20079</v>
-      </c>
-      <c r="B50" s="28"/>
+        <v>20121</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>331</v>
+      </c>
       <c r="C50" s="13" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>468</v>
+      </c>
+      <c r="G50" s="44"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>20080</v>
-      </c>
-      <c r="B51" s="28"/>
+        <v>20122</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>332</v>
+      </c>
       <c r="C51" s="13" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>469</v>
+      </c>
+      <c r="G51" s="44"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>20081</v>
-      </c>
-      <c r="B52" s="28"/>
+        <v>20123</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>333</v>
+      </c>
       <c r="C52" s="13" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>20082</v>
-      </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>20083</v>
-      </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>20084</v>
-      </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>20085</v>
-      </c>
-      <c r="B56" s="29"/>
-      <c r="C56" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>20086</v>
-      </c>
-      <c r="B57" s="29"/>
-      <c r="C57" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>20087</v>
-      </c>
-      <c r="B58" s="29"/>
-      <c r="C58" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>20088</v>
-      </c>
-      <c r="B59" s="30"/>
-      <c r="C59" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>20089</v>
-      </c>
-      <c r="B60" s="30"/>
-      <c r="C60" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>20090</v>
-      </c>
-      <c r="B61" s="30"/>
-      <c r="C61" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>20091</v>
-      </c>
-      <c r="B62" s="30"/>
-      <c r="C62" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>20092</v>
-      </c>
-      <c r="B63" s="30"/>
-      <c r="C63" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>20093</v>
-      </c>
-      <c r="B64" s="30"/>
-      <c r="C64" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>20094</v>
-      </c>
-      <c r="B65" s="31"/>
-      <c r="C65" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>20095</v>
-      </c>
-      <c r="B66" s="31"/>
-      <c r="C66" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>20096</v>
-      </c>
-      <c r="B67" s="31"/>
-      <c r="C67" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>20097</v>
-      </c>
-      <c r="B68" s="31"/>
-      <c r="C68" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>20098</v>
-      </c>
-      <c r="B69" s="31"/>
-      <c r="C69" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>20099</v>
-      </c>
-      <c r="B70" s="31"/>
-      <c r="C70" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>20100</v>
-      </c>
-      <c r="B71" s="32"/>
-      <c r="C71" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>20101</v>
-      </c>
-      <c r="B72" s="32"/>
-      <c r="C72" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>20102</v>
-      </c>
-      <c r="B73" s="32"/>
-      <c r="C73" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>20103</v>
-      </c>
-      <c r="B74" s="32"/>
-      <c r="C74" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>20104</v>
-      </c>
-      <c r="B75" s="32"/>
-      <c r="C75" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>20105</v>
-      </c>
-      <c r="B76" s="32"/>
-      <c r="C76" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>20106</v>
-      </c>
-      <c r="B77" s="33"/>
-      <c r="C77" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>20107</v>
-      </c>
-      <c r="B78" s="33"/>
-      <c r="C78" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>20108</v>
-      </c>
-      <c r="B79" s="33"/>
-      <c r="C79" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>20109</v>
-      </c>
-      <c r="B80" s="33"/>
-      <c r="C80" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>20110</v>
-      </c>
-      <c r="B81" s="33"/>
-      <c r="C81" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>20111</v>
-      </c>
-      <c r="B82" s="33"/>
-      <c r="C82" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>20112</v>
-      </c>
-      <c r="B83" s="28"/>
-      <c r="C83" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>20113</v>
-      </c>
-      <c r="B84" s="28"/>
-      <c r="C84" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>20114</v>
-      </c>
-      <c r="B85" s="28"/>
-      <c r="C85" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>20115</v>
-      </c>
-      <c r="B86" s="28"/>
-      <c r="C86" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>20116</v>
-      </c>
-      <c r="B87" s="28"/>
-      <c r="C87" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>20117</v>
-      </c>
-      <c r="B88" s="28"/>
-      <c r="C88" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>20118</v>
-      </c>
-      <c r="B89" s="34"/>
-      <c r="C89" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>20119</v>
-      </c>
-      <c r="B90" s="34"/>
-      <c r="C90" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>20120</v>
-      </c>
-      <c r="B91" s="34"/>
-      <c r="C91" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>20121</v>
-      </c>
-      <c r="B92" s="34"/>
-      <c r="C92" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>20122</v>
-      </c>
-      <c r="B93" s="34"/>
-      <c r="C93" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>20123</v>
-      </c>
-      <c r="B94" s="34"/>
-      <c r="C94" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>20028</v>
-      </c>
-      <c r="B98" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="D98" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="E98" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="F98" t="s">
-        <v>282</v>
-      </c>
-      <c r="G98" s="13" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>20029</v>
-      </c>
-      <c r="B99" s="19"/>
-      <c r="C99" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="D99" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="E99" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="F99" t="s">
-        <v>283</v>
-      </c>
-      <c r="G99" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>20030</v>
-      </c>
-      <c r="B100" s="19"/>
-      <c r="C100" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="D100" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="E100" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="F100" t="s">
-        <v>284</v>
-      </c>
-      <c r="G100" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>20031</v>
-      </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="D101" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E101" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="F101" t="s">
-        <v>285</v>
-      </c>
-      <c r="G101" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>20032</v>
-      </c>
-      <c r="B102" s="20"/>
-      <c r="C102" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="D102" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="E102" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="F102" t="s">
-        <v>286</v>
-      </c>
-      <c r="G102" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>20033</v>
-      </c>
-      <c r="B103" s="20"/>
-      <c r="C103" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="D103" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="E103" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="F103" t="s">
-        <v>287</v>
-      </c>
-      <c r="G103" t="s">
-        <v>123</v>
-      </c>
+      <c r="F52" t="s">
+        <v>470</v>
+      </c>
+      <c r="G52" s="44"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -4659,8 +6057,8 @@
       <c r="A4">
         <v>50001</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>217</v>
+      <c r="B4" s="20" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -4668,7 +6066,7 @@
         <v>50002</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -4676,7 +6074,7 @@
         <v>50003</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -4684,7 +6082,7 @@
         <v>50004</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -4692,7 +6090,7 @@
         <v>50005</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -4700,7 +6098,7 @@
         <v>50006</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -4708,7 +6106,7 @@
         <v>50007</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -4734,10 +6132,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CB22F1-D1C5-44DC-9DC8-1A51E67C4572}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4774,7 +6172,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>7</v>
@@ -4805,13 +6203,13 @@
         <v>60001</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4819,13 +6217,13 @@
         <v>60002</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -4833,13 +6231,13 @@
         <v>60003</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>228</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -4847,13 +6245,13 @@
         <v>60004</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>301</v>
-      </c>
       <c r="D7" s="13" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4861,13 +6259,13 @@
         <v>60005</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -4875,13 +6273,13 @@
         <v>60006</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -4889,13 +6287,55 @@
         <v>60007</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>307</v>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>60008</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>60009</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>60010</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>525</v>
       </c>
     </row>
   </sheetData>

--- a/Setting/data/数据表.xlsx
+++ b/Setting/data/数据表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\Clicker\Setting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCF19D0-EE11-4E34-9367-9F6CB790C52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A716DF-853E-48AB-9022-A94771D7CEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物品表 - Items" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="461">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,23 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>解锁条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unlock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>own[10001]1</t>
-  </si>
-  <si>
-    <t>own[10001]5</t>
-  </si>
-  <si>
-    <t>own[10001]25</t>
-  </si>
-  <si>
     <t>own[10001]50</t>
   </si>
   <si>
@@ -325,33 +308,6 @@
   </si>
   <si>
     <t>own[10001]150</t>
-  </si>
-  <si>
-    <t>own[10001]200</t>
-  </si>
-  <si>
-    <t>own[10001]250</t>
-  </si>
-  <si>
-    <t>own[10001]300</t>
-  </si>
-  <si>
-    <t>own[10001]350</t>
-  </si>
-  <si>
-    <t>own[10001]400</t>
-  </si>
-  <si>
-    <t>own[10001]450</t>
-  </si>
-  <si>
-    <t>own[10001]500</t>
-  </si>
-  <si>
-    <t>own[10001]550</t>
-  </si>
-  <si>
-    <t>own[10001]600</t>
   </si>
   <si>
     <t>1|3</t>
@@ -1000,10 +956,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>add[10013][bonus][efficiency][2.0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>add[10014][bonus][efficiency][2.0]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1084,44 +1036,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>own[10001]602</t>
-  </si>
-  <si>
-    <t>own[10001]603</t>
-  </si>
-  <si>
-    <t>own[10001]604</t>
-  </si>
-  <si>
-    <t>own[10001]605</t>
-  </si>
-  <si>
-    <t>own[10001]606</t>
-  </si>
-  <si>
-    <t>own[10001]607</t>
-  </si>
-  <si>
-    <t>own[10001]608</t>
-  </si>
-  <si>
-    <t>own[10001]609</t>
-  </si>
-  <si>
-    <t>own[10001]610</t>
-  </si>
-  <si>
-    <t>own[10001]611</t>
-  </si>
-  <si>
-    <t>own[10001]612</t>
-  </si>
-  <si>
     <t>Pot.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>own[10001]600</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1169,10 +1084,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>add[10003][coins][efficiency][1.1]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>第二个酒吧</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1197,18 +1108,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>add[10004][coins][efficiency][1.1]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>add[10005][coins][efficiency][1.1]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>add[10006][coins][efficiency][1.1]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>原子之心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1449,132 +1348,6 @@
   </si>
   <si>
     <t>波动率皱眉</t>
-  </si>
-  <si>
-    <t>own[10001]613</t>
-  </si>
-  <si>
-    <t>own[10001]614</t>
-  </si>
-  <si>
-    <t>own[10001]615</t>
-  </si>
-  <si>
-    <t>own[10001]616</t>
-  </si>
-  <si>
-    <t>own[10001]617</t>
-  </si>
-  <si>
-    <t>own[10001]618</t>
-  </si>
-  <si>
-    <t>own[10001]619</t>
-  </si>
-  <si>
-    <t>own[10001]620</t>
-  </si>
-  <si>
-    <t>own[10001]621</t>
-  </si>
-  <si>
-    <t>own[10001]622</t>
-  </si>
-  <si>
-    <t>own[10001]623</t>
-  </si>
-  <si>
-    <t>own[10001]624</t>
-  </si>
-  <si>
-    <t>own[10001]625</t>
-  </si>
-  <si>
-    <t>own[10001]626</t>
-  </si>
-  <si>
-    <t>own[10001]627</t>
-  </si>
-  <si>
-    <t>own[10001]628</t>
-  </si>
-  <si>
-    <t>own[10001]629</t>
-  </si>
-  <si>
-    <t>own[10001]630</t>
-  </si>
-  <si>
-    <t>own[10001]631</t>
-  </si>
-  <si>
-    <t>own[10001]632</t>
-  </si>
-  <si>
-    <t>own[10001]633</t>
-  </si>
-  <si>
-    <t>own[10001]634</t>
-  </si>
-  <si>
-    <t>own[10001]635</t>
-  </si>
-  <si>
-    <t>own[10001]636</t>
-  </si>
-  <si>
-    <t>own[10001]637</t>
-  </si>
-  <si>
-    <t>own[10001]638</t>
-  </si>
-  <si>
-    <t>own[10001]639</t>
-  </si>
-  <si>
-    <t>own[10001]640</t>
-  </si>
-  <si>
-    <t>own[10001]641</t>
-  </si>
-  <si>
-    <t>own[10001]642</t>
-  </si>
-  <si>
-    <t>own[10001]643</t>
-  </si>
-  <si>
-    <t>own[10001]644</t>
-  </si>
-  <si>
-    <t>own[10001]645</t>
-  </si>
-  <si>
-    <t>own[10001]646</t>
-  </si>
-  <si>
-    <t>own[10001]647</t>
-  </si>
-  <si>
-    <t>own[10001]648</t>
-  </si>
-  <si>
-    <t>own[10001]649</t>
-  </si>
-  <si>
-    <t>own[10001]650</t>
-  </si>
-  <si>
-    <t>own[10001]651</t>
-  </si>
-  <si>
-    <t>own[10001]652</t>
-  </si>
-  <si>
-    <t>own[10001]653</t>
-  </si>
-  <si>
-    <t>own[10001]654</t>
   </si>
   <si>
     <t>own[10001]655</t>
@@ -1883,10 +1656,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>add[10002][bonus][efficiency][900000]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reduce[10002][coins][efficiency][900000]</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1899,7 +1668,39 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>add[10002][bonus][efficiency][7777777]</t>
+    <t>coins[10002][bonus][efficiency][7777777]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coins[10002][bonus][efficiency][900000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10003][bonus][efficiency][1.1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10004][bonus][efficiency][1.1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10005][bonus][efficiency][1.1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10006][bonus][efficiency][1.1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10007][bonus][efficiency][2.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2450,8 +2251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E93042-FDD7-4095-BDE6-2D807EF660F2}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A17" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2528,10 +2329,10 @@
         <v>10001</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>25</v>
@@ -2540,7 +2341,7 @@
         <v>45</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2548,10 +2349,10 @@
         <v>10002</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>26</v>
@@ -2560,7 +2361,7 @@
         <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2568,10 +2369,10 @@
         <v>10003</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>27</v>
@@ -2580,7 +2381,7 @@
         <v>63</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2588,10 +2389,10 @@
         <v>10004</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>28</v>
@@ -2600,7 +2401,7 @@
         <v>64</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2608,10 +2409,10 @@
         <v>10005</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>29</v>
@@ -2620,7 +2421,7 @@
         <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2628,10 +2429,10 @@
         <v>10006</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>44</v>
@@ -2640,7 +2441,7 @@
         <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2648,10 +2449,10 @@
         <v>10007</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>43</v>
@@ -2660,7 +2461,7 @@
         <v>48</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>471</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2668,10 +2469,10 @@
         <v>10008</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>42</v>
@@ -2680,7 +2481,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>472</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2688,10 +2489,10 @@
         <v>10009</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>41</v>
@@ -2700,7 +2501,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>473</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2708,10 +2509,10 @@
         <v>10010</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>40</v>
@@ -2720,7 +2521,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>474</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2728,10 +2529,10 @@
         <v>10011</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>39</v>
@@ -2740,7 +2541,7 @@
         <v>52</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>475</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2748,10 +2549,10 @@
         <v>10012</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>38</v>
@@ -2760,7 +2561,7 @@
         <v>53</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>476</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2768,10 +2569,10 @@
         <v>10013</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>37</v>
@@ -2780,7 +2581,7 @@
         <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2788,10 +2589,10 @@
         <v>10014</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>36</v>
@@ -2800,7 +2601,7 @@
         <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2808,10 +2609,10 @@
         <v>10015</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>35</v>
@@ -2820,7 +2621,7 @@
         <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2828,10 +2629,10 @@
         <v>10016</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>34</v>
@@ -2840,7 +2641,7 @@
         <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2848,10 +2649,10 @@
         <v>10017</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>33</v>
@@ -2860,7 +2661,7 @@
         <v>58</v>
       </c>
       <c r="F20" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2868,10 +2669,10 @@
         <v>10018</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>32</v>
@@ -2880,7 +2681,7 @@
         <v>59</v>
       </c>
       <c r="F21" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2888,10 +2689,10 @@
         <v>10019</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>31</v>
@@ -2900,7 +2701,7 @@
         <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2908,10 +2709,10 @@
         <v>10020</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>30</v>
@@ -2920,7 +2721,7 @@
         <v>61</v>
       </c>
       <c r="F23" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -3014,8 +2815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E051483D-BA96-4FF1-9EBC-33D32BF815CB}">
   <dimension ref="A1:G132"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3024,8 +2825,8 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.75" customWidth="1"/>
     <col min="4" max="4" width="6.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
     <col min="7" max="7" width="29.375" style="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3069,7 +2870,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>65</v>
+        <v>459</v>
       </c>
       <c r="G2" s="43" t="s">
         <v>11</v>
@@ -3092,7 +2893,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>66</v>
+        <v>460</v>
       </c>
       <c r="G3" s="43" t="s">
         <v>12</v>
@@ -3103,22 +2904,22 @@
         <v>20001</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" t="s">
-        <v>67</v>
+      <c r="F4">
+        <v>0</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3126,22 +2927,22 @@
         <v>20002</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" t="s">
-        <v>68</v>
+      <c r="F5">
+        <v>20001</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3149,22 +2950,22 @@
         <v>20003</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="F6" t="s">
-        <v>69</v>
+      <c r="F6">
+        <v>20002</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3172,22 +2973,22 @@
         <v>20004</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
-        <v>73</v>
+      <c r="F7">
+        <v>0</v>
       </c>
       <c r="G7" s="44" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3195,22 +2996,22 @@
         <v>20005</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s">
-        <v>74</v>
+      <c r="F8">
+        <v>20004</v>
       </c>
       <c r="G8" s="44" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3218,22 +3019,22 @@
         <v>20006</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s">
-        <v>75</v>
+      <c r="F9">
+        <v>20005</v>
       </c>
       <c r="G9" s="44" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3241,22 +3042,22 @@
         <v>20007</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s">
-        <v>76</v>
+      <c r="F10">
+        <v>20006</v>
       </c>
       <c r="G10" s="44" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3264,22 +3065,22 @@
         <v>20008</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F11" t="s">
-        <v>77</v>
+      <c r="F11">
+        <v>20007</v>
       </c>
       <c r="G11" s="44" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3287,22 +3088,22 @@
         <v>20009</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>163</v>
-      </c>
       <c r="D12" s="13" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F12" t="s">
-        <v>78</v>
+      <c r="F12">
+        <v>20008</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3310,22 +3111,22 @@
         <v>20010</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C13" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="F13" t="s">
-        <v>79</v>
+      <c r="F13">
+        <v>0</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3333,22 +3134,22 @@
         <v>20011</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C14" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="F14" t="s">
-        <v>80</v>
+      <c r="F14">
+        <v>20010</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -3356,22 +3157,22 @@
         <v>20012</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C15" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="F15" t="s">
-        <v>81</v>
+      <c r="F15">
+        <v>20011</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -3379,22 +3180,22 @@
         <v>20013</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C16" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="F16" t="s">
-        <v>81</v>
+      <c r="F16">
+        <v>20012</v>
       </c>
       <c r="G16" s="44" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -3402,22 +3203,22 @@
         <v>20014</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="C17" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="F17" t="s">
-        <v>81</v>
+      <c r="F17">
+        <v>20013</v>
       </c>
       <c r="G17" s="44" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -3425,22 +3226,22 @@
         <v>20015</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C18" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="F18" t="s">
-        <v>81</v>
+      <c r="F18">
+        <v>20014</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -3448,22 +3249,22 @@
         <v>20016</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="F19" t="s">
-        <v>81</v>
+        <v>194</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
       </c>
       <c r="G19" s="44" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -3471,22 +3272,22 @@
         <v>20017</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="F20" t="s">
-        <v>81</v>
+        <v>194</v>
+      </c>
+      <c r="F20">
+        <v>20016</v>
       </c>
       <c r="G20" s="44" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -3494,22 +3295,22 @@
         <v>20018</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="F21" t="s">
-        <v>81</v>
+        <v>194</v>
+      </c>
+      <c r="F21">
+        <v>20017</v>
       </c>
       <c r="G21" s="44" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -3517,22 +3318,22 @@
         <v>20019</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="F22" t="s">
-        <v>81</v>
+        <v>194</v>
+      </c>
+      <c r="F22">
+        <v>20018</v>
       </c>
       <c r="G22" s="44" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -3540,22 +3341,22 @@
         <v>20020</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="D23" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="F23" t="s">
-        <v>81</v>
+      <c r="F23">
+        <v>20019</v>
       </c>
       <c r="G23" s="44" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -3563,22 +3364,22 @@
         <v>20021</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="F24" t="s">
-        <v>81</v>
+        <v>194</v>
+      </c>
+      <c r="F24">
+        <v>20020</v>
       </c>
       <c r="G24" s="44" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -3586,22 +3387,22 @@
         <v>20022</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>287</v>
+        <v>232</v>
+      </c>
+      <c r="F25" s="13">
+        <v>0</v>
       </c>
       <c r="G25" s="43" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -3609,22 +3410,22 @@
         <v>20023</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="F26" t="s">
-        <v>275</v>
+        <v>232</v>
+      </c>
+      <c r="F26">
+        <v>20022</v>
       </c>
       <c r="G26" s="43" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -3632,22 +3433,22 @@
         <v>20024</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="F27" t="s">
-        <v>276</v>
+        <v>232</v>
+      </c>
+      <c r="F27">
+        <v>20023</v>
       </c>
       <c r="G27" s="43" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -3655,22 +3456,22 @@
         <v>20025</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="F28" t="s">
-        <v>277</v>
+        <v>232</v>
+      </c>
+      <c r="F28">
+        <v>20024</v>
       </c>
       <c r="G28" s="43" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -3678,22 +3479,22 @@
         <v>20026</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="F29" t="s">
-        <v>278</v>
+        <v>232</v>
+      </c>
+      <c r="F29">
+        <v>20025</v>
       </c>
       <c r="G29" s="43" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -3701,22 +3502,22 @@
         <v>20027</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="F30" t="s">
-        <v>279</v>
+        <v>232</v>
+      </c>
+      <c r="F30">
+        <v>20026</v>
       </c>
       <c r="G30" s="43" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -3724,22 +3525,22 @@
         <v>20028</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="F31" t="s">
-        <v>280</v>
+        <v>233</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
       </c>
       <c r="G31" s="43" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -3747,22 +3548,22 @@
         <v>20029</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="F32" t="s">
-        <v>281</v>
+        <v>233</v>
+      </c>
+      <c r="F32">
+        <v>20027</v>
       </c>
       <c r="G32" s="44" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -3770,22 +3571,22 @@
         <v>20030</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="F33" t="s">
-        <v>282</v>
+        <v>233</v>
+      </c>
+      <c r="F33">
+        <v>20028</v>
       </c>
       <c r="G33" s="44" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -3793,22 +3594,22 @@
         <v>20031</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="F34" t="s">
-        <v>283</v>
+        <v>233</v>
+      </c>
+      <c r="F34">
+        <v>20029</v>
       </c>
       <c r="G34" s="44" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -3816,22 +3617,22 @@
         <v>20032</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="F35" t="s">
-        <v>284</v>
+        <v>233</v>
+      </c>
+      <c r="F35">
+        <v>20030</v>
       </c>
       <c r="G35" s="44" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -3839,22 +3640,22 @@
         <v>20033</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="F36" t="s">
-        <v>285</v>
+        <v>233</v>
+      </c>
+      <c r="F36">
+        <v>20031</v>
       </c>
       <c r="G36" s="44" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -3862,22 +3663,22 @@
         <v>20034</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>477</v>
+        <v>404</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="F37" t="s">
-        <v>381</v>
+        <v>234</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
       </c>
       <c r="G37" s="44" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -3885,22 +3686,22 @@
         <v>20035</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>478</v>
+        <v>405</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="F38" t="s">
-        <v>382</v>
+        <v>234</v>
+      </c>
+      <c r="F38">
+        <v>20034</v>
       </c>
       <c r="G38" s="44" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -3908,22 +3709,22 @@
         <v>20036</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>479</v>
+        <v>406</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="F39" t="s">
-        <v>383</v>
+        <v>234</v>
+      </c>
+      <c r="F39">
+        <v>20035</v>
       </c>
       <c r="G39" s="44" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -3931,22 +3732,22 @@
         <v>20037</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>480</v>
+        <v>407</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="F40" t="s">
-        <v>384</v>
+        <v>234</v>
+      </c>
+      <c r="F40">
+        <v>20036</v>
       </c>
       <c r="G40" s="44" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -3954,22 +3755,22 @@
         <v>20038</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>481</v>
+        <v>408</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="F41" t="s">
-        <v>385</v>
+        <v>234</v>
+      </c>
+      <c r="F41">
+        <v>20037</v>
       </c>
       <c r="G41" s="44" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -3977,22 +3778,22 @@
         <v>20039</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>482</v>
+        <v>409</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="F42" t="s">
-        <v>386</v>
+        <v>234</v>
+      </c>
+      <c r="F42">
+        <v>20038</v>
       </c>
       <c r="G42" s="44" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -4000,22 +3801,22 @@
         <v>20040</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>483</v>
+        <v>410</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="F43" t="s">
-        <v>387</v>
+        <v>458</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
       </c>
       <c r="G43" s="43" t="s">
-        <v>471</v>
+        <v>398</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -4023,22 +3824,22 @@
         <v>20041</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>484</v>
+        <v>411</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="F44" t="s">
-        <v>388</v>
+        <v>458</v>
+      </c>
+      <c r="F44">
+        <v>20040</v>
       </c>
       <c r="G44" s="43" t="s">
-        <v>471</v>
+        <v>398</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -4046,22 +3847,22 @@
         <v>20042</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>485</v>
+        <v>412</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="F45" t="s">
-        <v>389</v>
+        <v>458</v>
+      </c>
+      <c r="F45">
+        <v>20041</v>
       </c>
       <c r="G45" s="43" t="s">
-        <v>471</v>
+        <v>398</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -4069,22 +3870,22 @@
         <v>20043</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>486</v>
+        <v>413</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="F46" t="s">
-        <v>390</v>
+        <v>458</v>
+      </c>
+      <c r="F46">
+        <v>20042</v>
       </c>
       <c r="G46" s="43" t="s">
-        <v>471</v>
+        <v>398</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -4092,22 +3893,22 @@
         <v>20044</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>487</v>
+        <v>414</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="F47" t="s">
-        <v>391</v>
+        <v>458</v>
+      </c>
+      <c r="F47">
+        <v>20043</v>
       </c>
       <c r="G47" s="43" t="s">
-        <v>471</v>
+        <v>398</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -4115,22 +3916,22 @@
         <v>20045</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>488</v>
+        <v>415</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="F48" t="s">
-        <v>392</v>
+        <v>458</v>
+      </c>
+      <c r="F48">
+        <v>20044</v>
       </c>
       <c r="G48" s="43" t="s">
-        <v>471</v>
+        <v>398</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -4138,22 +3939,22 @@
         <v>20046</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>489</v>
+        <v>416</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="F49" t="s">
-        <v>393</v>
+        <v>235</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
       </c>
       <c r="G49" s="43" t="s">
-        <v>472</v>
+        <v>399</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -4161,22 +3962,22 @@
         <v>20047</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>490</v>
+        <v>417</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="F50" t="s">
-        <v>394</v>
+        <v>235</v>
+      </c>
+      <c r="F50">
+        <v>20046</v>
       </c>
       <c r="G50" s="43" t="s">
-        <v>472</v>
+        <v>399</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -4184,22 +3985,22 @@
         <v>20048</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>491</v>
+        <v>418</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="F51" t="s">
-        <v>395</v>
+        <v>235</v>
+      </c>
+      <c r="F51">
+        <v>20047</v>
       </c>
       <c r="G51" s="43" t="s">
-        <v>472</v>
+        <v>399</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -4207,22 +4008,22 @@
         <v>20049</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>492</v>
+        <v>419</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="F52" t="s">
-        <v>396</v>
+        <v>235</v>
+      </c>
+      <c r="F52">
+        <v>20048</v>
       </c>
       <c r="G52" s="43" t="s">
-        <v>472</v>
+        <v>399</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -4230,22 +4031,22 @@
         <v>20050</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>493</v>
+        <v>420</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="F53" t="s">
-        <v>397</v>
+        <v>235</v>
+      </c>
+      <c r="F53">
+        <v>20049</v>
       </c>
       <c r="G53" s="43" t="s">
-        <v>472</v>
+        <v>399</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -4253,22 +4054,22 @@
         <v>20051</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>494</v>
+        <v>421</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="F54" t="s">
-        <v>398</v>
+        <v>235</v>
+      </c>
+      <c r="F54">
+        <v>20050</v>
       </c>
       <c r="G54" s="43" t="s">
-        <v>472</v>
+        <v>399</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -4276,22 +4077,22 @@
         <v>20052</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>495</v>
+        <v>422</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="F55" t="s">
-        <v>399</v>
+        <v>236</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
       </c>
       <c r="G55" s="44" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -4299,22 +4100,22 @@
         <v>20053</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>496</v>
+        <v>423</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="F56" t="s">
-        <v>400</v>
+        <v>236</v>
+      </c>
+      <c r="F56">
+        <v>20052</v>
       </c>
       <c r="G56" s="44" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -4322,22 +4123,22 @@
         <v>20054</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>497</v>
+        <v>424</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="F57" t="s">
-        <v>401</v>
+        <v>236</v>
+      </c>
+      <c r="F57">
+        <v>20053</v>
       </c>
       <c r="G57" s="44" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -4345,22 +4146,22 @@
         <v>20055</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>498</v>
+        <v>425</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="F58" t="s">
-        <v>402</v>
+        <v>236</v>
+      </c>
+      <c r="F58">
+        <v>20054</v>
       </c>
       <c r="G58" s="44" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -4368,22 +4169,22 @@
         <v>20056</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>499</v>
+        <v>426</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="F59" t="s">
-        <v>403</v>
+        <v>236</v>
+      </c>
+      <c r="F59">
+        <v>20055</v>
       </c>
       <c r="G59" s="44" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -4391,22 +4192,22 @@
         <v>20057</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>500</v>
+        <v>427</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="F60" t="s">
-        <v>404</v>
+        <v>236</v>
+      </c>
+      <c r="F60">
+        <v>20056</v>
       </c>
       <c r="G60" s="44" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -4414,22 +4215,22 @@
         <v>20058</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>501</v>
+        <v>428</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="F61" t="s">
-        <v>405</v>
+        <v>237</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
       </c>
       <c r="G61" s="44" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -4437,22 +4238,22 @@
         <v>20059</v>
       </c>
       <c r="B62" s="41" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>502</v>
+        <v>429</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="F62" t="s">
-        <v>406</v>
+        <v>237</v>
+      </c>
+      <c r="F62">
+        <v>20058</v>
       </c>
       <c r="G62" s="44" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -4460,22 +4261,22 @@
         <v>20060</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>503</v>
+        <v>430</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="F63" t="s">
-        <v>407</v>
+        <v>237</v>
+      </c>
+      <c r="F63">
+        <v>20059</v>
       </c>
       <c r="G63" s="44" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -4483,22 +4284,22 @@
         <v>20061</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>504</v>
+        <v>431</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="F64" t="s">
-        <v>408</v>
+        <v>237</v>
+      </c>
+      <c r="F64">
+        <v>20060</v>
       </c>
       <c r="G64" s="44" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -4506,22 +4307,22 @@
         <v>20062</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>505</v>
+        <v>432</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="F65" t="s">
-        <v>409</v>
+        <v>237</v>
+      </c>
+      <c r="F65">
+        <v>20061</v>
       </c>
       <c r="G65" s="44" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -4529,22 +4330,22 @@
         <v>20063</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>506</v>
+        <v>433</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="F66" t="s">
-        <v>410</v>
+        <v>237</v>
+      </c>
+      <c r="F66">
+        <v>20062</v>
       </c>
       <c r="G66" s="44" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -4552,22 +4353,22 @@
         <v>20064</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>507</v>
+        <v>434</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="F67" t="s">
-        <v>411</v>
+        <v>238</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
       </c>
       <c r="G67" s="44" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -4575,22 +4376,22 @@
         <v>20065</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>376</v>
+        <v>345</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>508</v>
+        <v>435</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="F68" t="s">
-        <v>412</v>
+        <v>238</v>
+      </c>
+      <c r="F68">
+        <v>20064</v>
       </c>
       <c r="G68" s="44" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -4598,22 +4399,22 @@
         <v>20066</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>509</v>
+        <v>436</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="F69" t="s">
-        <v>413</v>
+        <v>238</v>
+      </c>
+      <c r="F69">
+        <v>20065</v>
       </c>
       <c r="G69" s="44" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -4621,22 +4422,22 @@
         <v>20067</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>510</v>
+        <v>437</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="F70" t="s">
-        <v>414</v>
+        <v>238</v>
+      </c>
+      <c r="F70">
+        <v>20066</v>
       </c>
       <c r="G70" s="44" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -4644,22 +4445,22 @@
         <v>20068</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>511</v>
+        <v>438</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="F71" t="s">
-        <v>415</v>
+        <v>238</v>
+      </c>
+      <c r="F71">
+        <v>20067</v>
       </c>
       <c r="G71" s="44" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -4667,22 +4468,22 @@
         <v>20069</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>512</v>
+        <v>439</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="F72" t="s">
-        <v>416</v>
+        <v>238</v>
+      </c>
+      <c r="F72">
+        <v>20068</v>
       </c>
       <c r="G72" s="44" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -4690,22 +4491,22 @@
         <v>20070</v>
       </c>
       <c r="B73" s="37" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>513</v>
+        <v>440</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="F73" t="s">
-        <v>417</v>
+        <v>239</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
       </c>
       <c r="G73" s="44" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -4713,22 +4514,22 @@
         <v>20071</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>514</v>
+        <v>441</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="F74" t="s">
-        <v>418</v>
+        <v>239</v>
+      </c>
+      <c r="F74">
+        <v>20070</v>
       </c>
       <c r="G74" s="44" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -4736,22 +4537,22 @@
         <v>20072</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>515</v>
+        <v>442</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="F75" t="s">
-        <v>419</v>
+        <v>239</v>
+      </c>
+      <c r="F75">
+        <v>20071</v>
       </c>
       <c r="G75" s="44" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -4759,22 +4560,22 @@
         <v>20073</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>516</v>
+        <v>443</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="F76" t="s">
-        <v>420</v>
+        <v>239</v>
+      </c>
+      <c r="F76">
+        <v>20072</v>
       </c>
       <c r="G76" s="44" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -4782,22 +4583,22 @@
         <v>20074</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>517</v>
+        <v>444</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="F77" t="s">
-        <v>421</v>
+        <v>239</v>
+      </c>
+      <c r="F77">
+        <v>20073</v>
       </c>
       <c r="G77" s="44" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -4805,22 +4606,22 @@
         <v>20075</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>372</v>
+        <v>341</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>518</v>
+        <v>445</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="F78" t="s">
-        <v>422</v>
+        <v>239</v>
+      </c>
+      <c r="F78">
+        <v>20074</v>
       </c>
       <c r="G78" s="44" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
@@ -4863,8 +4664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7E6B59-2776-4BF4-820D-1188B7AE0776}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4874,22 +4675,22 @@
         <v>20004</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -4897,22 +4698,22 @@
         <v>20005</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4920,22 +4721,22 @@
         <v>20006</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G3" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4943,17 +4744,17 @@
         <v>20076</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>373</v>
+        <v>342</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="F5" t="s">
-        <v>423</v>
+        <v>350</v>
       </c>
       <c r="G5" s="44"/>
     </row>
@@ -4962,17 +4763,17 @@
         <v>20077</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>374</v>
+        <v>343</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="F6" t="s">
-        <v>424</v>
+        <v>351</v>
       </c>
       <c r="G6" s="44"/>
     </row>
@@ -4981,17 +4782,17 @@
         <v>20078</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="F7" t="s">
-        <v>425</v>
+        <v>352</v>
       </c>
       <c r="G7" s="44"/>
     </row>
@@ -5001,14 +4802,14 @@
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="13" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="F8" t="s">
-        <v>426</v>
+        <v>353</v>
       </c>
       <c r="G8" s="44"/>
     </row>
@@ -5018,14 +4819,14 @@
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="13" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="F9" t="s">
-        <v>427</v>
+        <v>354</v>
       </c>
       <c r="G9" s="44"/>
     </row>
@@ -5035,14 +4836,14 @@
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="13" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="F10" t="s">
-        <v>428</v>
+        <v>355</v>
       </c>
       <c r="G10" s="44"/>
     </row>
@@ -5051,17 +4852,17 @@
         <v>20082</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="F11" t="s">
-        <v>429</v>
+        <v>356</v>
       </c>
       <c r="G11" s="44"/>
     </row>
@@ -5071,14 +4872,14 @@
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="13" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="F12" t="s">
-        <v>430</v>
+        <v>357</v>
       </c>
       <c r="G12" s="44"/>
     </row>
@@ -5088,14 +4889,14 @@
       </c>
       <c r="B13" s="28"/>
       <c r="C13" s="13" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="F13" t="s">
-        <v>431</v>
+        <v>358</v>
       </c>
       <c r="G13" s="44"/>
     </row>
@@ -5105,14 +4906,14 @@
       </c>
       <c r="B14" s="28"/>
       <c r="C14" s="13" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="F14" t="s">
-        <v>432</v>
+        <v>359</v>
       </c>
       <c r="G14" s="44"/>
     </row>
@@ -5122,14 +4923,14 @@
       </c>
       <c r="B15" s="28"/>
       <c r="C15" s="13" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="F15" t="s">
-        <v>433</v>
+        <v>360</v>
       </c>
       <c r="G15" s="44"/>
     </row>
@@ -5139,14 +4940,14 @@
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="13" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="F16" t="s">
-        <v>434</v>
+        <v>361</v>
       </c>
       <c r="G16" s="44"/>
     </row>
@@ -5155,17 +4956,17 @@
         <v>20088</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="F17" t="s">
-        <v>435</v>
+        <v>362</v>
       </c>
       <c r="G17" s="44"/>
     </row>
@@ -5175,14 +4976,14 @@
       </c>
       <c r="B18" s="29"/>
       <c r="C18" s="13" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="F18" t="s">
-        <v>436</v>
+        <v>363</v>
       </c>
       <c r="G18" s="44"/>
     </row>
@@ -5192,14 +4993,14 @@
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="13" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="F19" t="s">
-        <v>437</v>
+        <v>364</v>
       </c>
       <c r="G19" s="44"/>
     </row>
@@ -5209,14 +5010,14 @@
       </c>
       <c r="B20" s="29"/>
       <c r="C20" s="13" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="F20" t="s">
-        <v>438</v>
+        <v>365</v>
       </c>
       <c r="G20" s="44"/>
     </row>
@@ -5226,14 +5027,14 @@
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="13" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="F21" t="s">
-        <v>439</v>
+        <v>366</v>
       </c>
       <c r="G21" s="44"/>
     </row>
@@ -5243,14 +5044,14 @@
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="13" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="F22" t="s">
-        <v>440</v>
+        <v>367</v>
       </c>
       <c r="G22" s="44"/>
     </row>
@@ -5260,14 +5061,14 @@
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="13" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="F23" t="s">
-        <v>441</v>
+        <v>368</v>
       </c>
       <c r="G23" s="44"/>
     </row>
@@ -5277,14 +5078,14 @@
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="13" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="F24" t="s">
-        <v>442</v>
+        <v>369</v>
       </c>
       <c r="G24" s="44"/>
     </row>
@@ -5294,14 +5095,14 @@
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="13" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="F25" t="s">
-        <v>443</v>
+        <v>370</v>
       </c>
       <c r="G25" s="44"/>
     </row>
@@ -5311,14 +5112,14 @@
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="13" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="F26" t="s">
-        <v>444</v>
+        <v>371</v>
       </c>
       <c r="G26" s="44"/>
     </row>
@@ -5328,14 +5129,14 @@
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="13" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="F27" t="s">
-        <v>445</v>
+        <v>372</v>
       </c>
       <c r="G27" s="44"/>
     </row>
@@ -5345,14 +5146,14 @@
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="13" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="F28" t="s">
-        <v>446</v>
+        <v>373</v>
       </c>
       <c r="G28" s="44"/>
     </row>
@@ -5362,14 +5163,14 @@
       </c>
       <c r="B29" s="31"/>
       <c r="C29" s="13" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="F29" t="s">
-        <v>447</v>
+        <v>374</v>
       </c>
       <c r="G29" s="44"/>
     </row>
@@ -5379,14 +5180,14 @@
       </c>
       <c r="B30" s="31"/>
       <c r="C30" s="13" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="F30" t="s">
-        <v>448</v>
+        <v>375</v>
       </c>
       <c r="G30" s="44"/>
     </row>
@@ -5396,14 +5197,14 @@
       </c>
       <c r="B31" s="31"/>
       <c r="C31" s="13" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="F31" t="s">
-        <v>449</v>
+        <v>376</v>
       </c>
       <c r="G31" s="44"/>
     </row>
@@ -5413,14 +5214,14 @@
       </c>
       <c r="B32" s="31"/>
       <c r="C32" s="13" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="F32" t="s">
-        <v>450</v>
+        <v>377</v>
       </c>
       <c r="G32" s="44"/>
     </row>
@@ -5430,14 +5231,14 @@
       </c>
       <c r="B33" s="31"/>
       <c r="C33" s="13" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="F33" t="s">
-        <v>451</v>
+        <v>378</v>
       </c>
       <c r="G33" s="44"/>
     </row>
@@ -5446,17 +5247,17 @@
         <v>20105</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="F34" t="s">
-        <v>452</v>
+        <v>379</v>
       </c>
       <c r="G34" s="44"/>
     </row>
@@ -5465,17 +5266,17 @@
         <v>20106</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="F35" t="s">
-        <v>453</v>
+        <v>380</v>
       </c>
       <c r="G35" s="44"/>
     </row>
@@ -5484,17 +5285,17 @@
         <v>20107</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="F36" t="s">
-        <v>454</v>
+        <v>381</v>
       </c>
       <c r="G36" s="44"/>
     </row>
@@ -5503,17 +5304,17 @@
         <v>20108</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="F37" t="s">
-        <v>455</v>
+        <v>382</v>
       </c>
       <c r="G37" s="44"/>
     </row>
@@ -5522,17 +5323,17 @@
         <v>20109</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="F38" t="s">
-        <v>456</v>
+        <v>383</v>
       </c>
       <c r="G38" s="44"/>
     </row>
@@ -5541,17 +5342,17 @@
         <v>20110</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="F39" t="s">
-        <v>457</v>
+        <v>384</v>
       </c>
       <c r="G39" s="44"/>
     </row>
@@ -5560,17 +5361,17 @@
         <v>20111</v>
       </c>
       <c r="B40" s="38" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="F40" t="s">
-        <v>458</v>
+        <v>385</v>
       </c>
       <c r="G40" s="44"/>
     </row>
@@ -5579,17 +5380,17 @@
         <v>20112</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="F41" t="s">
-        <v>459</v>
+        <v>386</v>
       </c>
       <c r="G41" s="44"/>
     </row>
@@ -5598,17 +5399,17 @@
         <v>20113</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="F42" t="s">
-        <v>460</v>
+        <v>387</v>
       </c>
       <c r="G42" s="44"/>
     </row>
@@ -5617,17 +5418,17 @@
         <v>20114</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="F43" t="s">
-        <v>461</v>
+        <v>388</v>
       </c>
       <c r="G43" s="44"/>
     </row>
@@ -5636,17 +5437,17 @@
         <v>20115</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="F44" t="s">
-        <v>462</v>
+        <v>389</v>
       </c>
       <c r="G44" s="44"/>
     </row>
@@ -5655,17 +5456,17 @@
         <v>20116</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="F45" t="s">
-        <v>463</v>
+        <v>390</v>
       </c>
       <c r="G45" s="44"/>
     </row>
@@ -5674,17 +5475,17 @@
         <v>20117</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="F46" t="s">
-        <v>464</v>
+        <v>391</v>
       </c>
       <c r="G46" s="44"/>
     </row>
@@ -5693,17 +5494,17 @@
         <v>20118</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="13" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="F47" t="s">
-        <v>465</v>
+        <v>392</v>
       </c>
       <c r="G47" s="44"/>
     </row>
@@ -5712,17 +5513,17 @@
         <v>20119</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="F48" t="s">
-        <v>466</v>
+        <v>393</v>
       </c>
       <c r="G48" s="44"/>
     </row>
@@ -5731,17 +5532,17 @@
         <v>20120</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="F49" t="s">
-        <v>467</v>
+        <v>394</v>
       </c>
       <c r="G49" s="44"/>
     </row>
@@ -5750,17 +5551,17 @@
         <v>20121</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="F50" t="s">
-        <v>468</v>
+        <v>395</v>
       </c>
       <c r="G50" s="44"/>
     </row>
@@ -5769,17 +5570,17 @@
         <v>20122</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="F51" t="s">
-        <v>469</v>
+        <v>396</v>
       </c>
       <c r="G51" s="44"/>
     </row>
@@ -5788,17 +5589,17 @@
         <v>20123</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="F52" t="s">
-        <v>470</v>
+        <v>397</v>
       </c>
       <c r="G52" s="44"/>
     </row>
@@ -5899,7 +5700,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -5930,7 +5731,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -5944,7 +5745,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -5958,7 +5759,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -5969,10 +5770,10 @@
         <v>40001</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -6058,7 +5859,7 @@
         <v>50001</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -6066,7 +5867,7 @@
         <v>50002</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -6074,7 +5875,7 @@
         <v>50003</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -6082,7 +5883,7 @@
         <v>50004</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -6090,7 +5891,7 @@
         <v>50005</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -6098,7 +5899,7 @@
         <v>50006</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -6106,7 +5907,7 @@
         <v>50007</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -6134,15 +5935,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CB22F1-D1C5-44DC-9DC8-1A51E67C4572}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.25" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
   </cols>
@@ -6172,7 +5973,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>7</v>
@@ -6203,13 +6004,13 @@
         <v>60001</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -6217,13 +6018,13 @@
         <v>60002</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -6231,13 +6032,13 @@
         <v>60003</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -6245,13 +6046,13 @@
         <v>60004</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>299</v>
+        <v>454</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -6259,13 +6060,13 @@
         <v>60005</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>306</v>
+        <v>455</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -6273,13 +6074,13 @@
         <v>60006</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>307</v>
+        <v>456</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -6287,13 +6088,13 @@
         <v>60007</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>308</v>
+        <v>457</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -6301,13 +6102,13 @@
         <v>60008</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>519</v>
+        <v>446</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>522</v>
+        <v>453</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>520</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -6315,13 +6116,13 @@
         <v>60009</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>519</v>
+        <v>446</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>523</v>
+        <v>449</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>521</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -6329,13 +6130,13 @@
         <v>60010</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>524</v>
+        <v>450</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>526</v>
+        <v>452</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>525</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>

--- a/Setting/data/数据表.xlsx
+++ b/Setting/data/数据表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\Clicker\Setting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A716DF-853E-48AB-9022-A94771D7CEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17772896-EB1F-4081-8648-AABB15AD43E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2815,8 +2815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E051483D-BA96-4FF1-9EBC-33D32BF815CB}">
   <dimension ref="A1:G132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2847,7 +2847,7 @@
         <v>24</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G1" s="42" t="s">
         <v>2</v>

--- a/Setting/data/数据表.xlsx
+++ b/Setting/data/数据表.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\Clicker\Setting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17772896-EB1F-4081-8648-AABB15AD43E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E45F66-ECA7-4D5C-849C-BDCA8002D851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物品表 - Items" sheetId="4" r:id="rId1"/>
     <sheet name="技能表 - Skills" sheetId="5" r:id="rId2"/>
     <sheet name="~临时字段" sheetId="8" r:id="rId3"/>
     <sheet name="事件表 - Events" sheetId="6" r:id="rId4"/>
-    <sheet name="事件内容表-EventData" sheetId="7" r:id="rId5"/>
-    <sheet name="~敌人表-Enemy" sheetId="9" r:id="rId6"/>
-    <sheet name="配方表-Recipe" sheetId="10" r:id="rId7"/>
+    <sheet name="技能树-Trees" sheetId="11" r:id="rId5"/>
+    <sheet name="事件内容表-EventData" sheetId="7" r:id="rId6"/>
+    <sheet name="~敌人表-Enemy" sheetId="9" r:id="rId7"/>
+    <sheet name="配方表-Recipe" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="594">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1068,14 +1069,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>add[10002][bonus][efficiency][0.2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁匠很喜欢喝，但没想到是假酒。每个铁匠获得的金币变为 0.2 倍。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地中海的气候</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1350,150 +1343,6 @@
     <t>波动率皱眉</t>
   </si>
   <si>
-    <t>own[10001]655</t>
-  </si>
-  <si>
-    <t>own[10001]656</t>
-  </si>
-  <si>
-    <t>own[10001]657</t>
-  </si>
-  <si>
-    <t>own[10001]658</t>
-  </si>
-  <si>
-    <t>own[10001]659</t>
-  </si>
-  <si>
-    <t>own[10001]660</t>
-  </si>
-  <si>
-    <t>own[10001]661</t>
-  </si>
-  <si>
-    <t>own[10001]662</t>
-  </si>
-  <si>
-    <t>own[10001]663</t>
-  </si>
-  <si>
-    <t>own[10001]664</t>
-  </si>
-  <si>
-    <t>own[10001]665</t>
-  </si>
-  <si>
-    <t>own[10001]666</t>
-  </si>
-  <si>
-    <t>own[10001]667</t>
-  </si>
-  <si>
-    <t>own[10001]668</t>
-  </si>
-  <si>
-    <t>own[10001]669</t>
-  </si>
-  <si>
-    <t>own[10001]670</t>
-  </si>
-  <si>
-    <t>own[10001]671</t>
-  </si>
-  <si>
-    <t>own[10001]672</t>
-  </si>
-  <si>
-    <t>own[10001]673</t>
-  </si>
-  <si>
-    <t>own[10001]674</t>
-  </si>
-  <si>
-    <t>own[10001]675</t>
-  </si>
-  <si>
-    <t>own[10001]676</t>
-  </si>
-  <si>
-    <t>own[10001]677</t>
-  </si>
-  <si>
-    <t>own[10001]678</t>
-  </si>
-  <si>
-    <t>own[10001]679</t>
-  </si>
-  <si>
-    <t>own[10001]680</t>
-  </si>
-  <si>
-    <t>own[10001]681</t>
-  </si>
-  <si>
-    <t>own[10001]682</t>
-  </si>
-  <si>
-    <t>own[10001]683</t>
-  </si>
-  <si>
-    <t>own[10001]684</t>
-  </si>
-  <si>
-    <t>own[10001]685</t>
-  </si>
-  <si>
-    <t>own[10001]686</t>
-  </si>
-  <si>
-    <t>own[10001]687</t>
-  </si>
-  <si>
-    <t>own[10001]688</t>
-  </si>
-  <si>
-    <t>own[10001]689</t>
-  </si>
-  <si>
-    <t>own[10001]690</t>
-  </si>
-  <si>
-    <t>own[10001]691</t>
-  </si>
-  <si>
-    <t>own[10001]692</t>
-  </si>
-  <si>
-    <t>own[10001]693</t>
-  </si>
-  <si>
-    <t>own[10001]694</t>
-  </si>
-  <si>
-    <t>own[10001]695</t>
-  </si>
-  <si>
-    <t>own[10001]696</t>
-  </si>
-  <si>
-    <t>own[10001]697</t>
-  </si>
-  <si>
-    <t>own[10001]698</t>
-  </si>
-  <si>
-    <t>own[10001]699</t>
-  </si>
-  <si>
-    <t>own[10001]700</t>
-  </si>
-  <si>
-    <t>own[10001]701</t>
-  </si>
-  <si>
-    <t>own[10001]702</t>
-  </si>
-  <si>
     <t>Rudy.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1701,6 +1550,624 @@
   </si>
   <si>
     <t>last</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10013][bonus][efficiency][2.0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴别塔</t>
+  </si>
+  <si>
+    <t>倍二无一</t>
+  </si>
+  <si>
+    <t>猴子生意</t>
+  </si>
+  <si>
+    <t>自我代入</t>
+  </si>
+  <si>
+    <t>空想性错视</t>
+  </si>
+  <si>
+    <t>病中心愿</t>
+  </si>
+  <si>
+    <t>鲸类感染</t>
+  </si>
+  <si>
+    <t>非创伤性解离症</t>
+  </si>
+  <si>
+    <t>掩日海</t>
+  </si>
+  <si>
+    <t>存储单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廉价影厅</t>
+  </si>
+  <si>
+    <t>湛蓝浅海</t>
+  </si>
+  <si>
+    <t>天堂旅馆</t>
+  </si>
+  <si>
+    <t>天堂之窗</t>
+  </si>
+  <si>
+    <t>神经脉冲</t>
+  </si>
+  <si>
+    <t>熵增变化</t>
+  </si>
+  <si>
+    <t>阈限森林</t>
+  </si>
+  <si>
+    <t>危坠楼迭</t>
+  </si>
+  <si>
+    <t>同位素</t>
+  </si>
+  <si>
+    <t>昏影之城</t>
+  </si>
+  <si>
+    <t>毛线编织</t>
+  </si>
+  <si>
+    <t>悲欢交融</t>
+  </si>
+  <si>
+    <t>留声回响</t>
+  </si>
+  <si>
+    <t>美妙天堂</t>
+  </si>
+  <si>
+    <t>1.7|15</t>
+  </si>
+  <si>
+    <t>8.5|15</t>
+  </si>
+  <si>
+    <t>8.5|16</t>
+  </si>
+  <si>
+    <t>8.5|18</t>
+  </si>
+  <si>
+    <t>8.5|20</t>
+  </si>
+  <si>
+    <t>8.5|21</t>
+  </si>
+  <si>
+    <t>2.1|16</t>
+  </si>
+  <si>
+    <t>1|17</t>
+  </si>
+  <si>
+    <t>1|18</t>
+  </si>
+  <si>
+    <t>1|20</t>
+  </si>
+  <si>
+    <t>1|22</t>
+  </si>
+  <si>
+    <t>1|24</t>
+  </si>
+  <si>
+    <t>2.6|17</t>
+  </si>
+  <si>
+    <t>1.3|18</t>
+  </si>
+  <si>
+    <t>1.3|19</t>
+  </si>
+  <si>
+    <t>1.3|21</t>
+  </si>
+  <si>
+    <t>1.3|23</t>
+  </si>
+  <si>
+    <t>1.3|24</t>
+  </si>
+  <si>
+    <t>3.1|18</t>
+  </si>
+  <si>
+    <t>1.5|19</t>
+  </si>
+  <si>
+    <t>1.5|20</t>
+  </si>
+  <si>
+    <t>1.5|22</t>
+  </si>
+  <si>
+    <t>1.5|24</t>
+  </si>
+  <si>
+    <t>1.5|27</t>
+  </si>
+  <si>
+    <t>7.1|20</t>
+  </si>
+  <si>
+    <t>3.5|21</t>
+  </si>
+  <si>
+    <t>3.5|22</t>
+  </si>
+  <si>
+    <t>3.5|24</t>
+  </si>
+  <si>
+    <t>3.5|27</t>
+  </si>
+  <si>
+    <t>3.5|30</t>
+  </si>
+  <si>
+    <t>1.2|23</t>
+  </si>
+  <si>
+    <t>6|23</t>
+  </si>
+  <si>
+    <t>6|24</t>
+  </si>
+  <si>
+    <t>6|26</t>
+  </si>
+  <si>
+    <t>6|28</t>
+  </si>
+  <si>
+    <t>6|30</t>
+  </si>
+  <si>
+    <t>1.9|25</t>
+  </si>
+  <si>
+    <t>1.9|28</t>
+  </si>
+  <si>
+    <t>1.9|31</t>
+  </si>
+  <si>
+    <t>1.9|33</t>
+  </si>
+  <si>
+    <t>1.9|36</t>
+  </si>
+  <si>
+    <t>5.4|27</t>
+  </si>
+  <si>
+    <t>2.7|28</t>
+  </si>
+  <si>
+    <t>2.7|30</t>
+  </si>
+  <si>
+    <t>2.7|33</t>
+  </si>
+  <si>
+    <t>2.7|34</t>
+  </si>
+  <si>
+    <t>2.7|37</t>
+  </si>
+  <si>
+    <t>六神水</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼金术士往里面加入了六种材料，取名六神。王水获得金币 +0.1 倍。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>天堂制造</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼金术士偶然结识一位神父，神父教他制作这瓶药剂。天国阶梯获得金币 +0.1 倍。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运鸡蛋派</t>
+  </si>
+  <si>
+    <t>战斗中，吃一口可以获得某些加成，但是战斗系统还没做好。</t>
+  </si>
+  <si>
+    <t>独角兽泪水</t>
+  </si>
+  <si>
+    <t>龙蛋清酒</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10008][bonus][efficiency][1.1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10018][bonus][efficiency][1.1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nothing[10018][bonus][efficiency][1.1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝起来类似酸酸乳。每秒点击金币变为 5 倍，持续30秒。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>click[30][time][efficiency][5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click[20][time][efficiency][6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝下去感觉可以挑战整个世界。每秒点击变为 6 倍，持续 20 秒。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫头鹰眼泪酒</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩虹舌头蜥蜴</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝下去会对老鼠产生渴望。长生露获得金币 +0.1倍。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10009][bonus][efficiency][1.1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[100010][bonus][efficiency][1.1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说这种蜥蜴拥有点石成金的能力，不过实测只有点石成泡泡的实力。五芒星获得金币 +0.1倍。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wabby Wabbo</t>
+  </si>
+  <si>
+    <t>click[77][time][efficiency][777]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>are you good MyRiXYa! 每秒点击变为 777 倍，持续 77 秒。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运太阳荷包</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>双吐司月亮戒指</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴上它，永远不会走霉运。太阳获得金币 +0.1 倍。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴上它，永远不会烤熟吐司。月亮获得金币 +0.1 倍。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10012][bonus][efficiency][1.1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10011][bonus][efficiency][1.1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>象牙塔</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>象牙塔，是指象牙做的塔。黄金之塔获得金币 +0.1 倍。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10013][bonus][efficiency][1.1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔术师</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼金术士最新的爱好。卡巴拉之术获得金币 +0.1 倍。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10014][bonus][efficiency][1.1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>我也想送一颗星星给你。星锑获得金币 +0.1 倍。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐杯</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶稣使用过的餐杯。圣杯获得金币 +0.1 倍。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10015][bonus][efficiency][1.1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10016][bonus][efficiency][1.1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>哲人石</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>雕刻成了苏格拉底的模样。贤者之石获得金币 +0.1 倍。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10017][bonus][efficiency][1.1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新星漂移</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10019][bonus][efficiency][1.1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想世界</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10020][bonus][efficiency][1.1]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星也可以移动。暗物质星系获得金币 +0.1 倍。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>另一个世界。平行宇宙获得金币 +0.1 倍。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>贤者之屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贤者之歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贤者之城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.9|1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|7</t>
+  </si>
+  <si>
+    <t>1|11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁更换背景的能力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加更多背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁更换点击音效的能力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁匠很喜欢喝。每个铁匠获得的金币 +0.1 倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10002][bonus][efficiency][1.1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天国之门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启天国之门。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考的盐、硫、汞</t>
+  </si>
+  <si>
+    <t>思考的铁匠</t>
+  </si>
+  <si>
+    <t>思考的炼金术士</t>
+  </si>
+  <si>
+    <t>思考的炼金锅</t>
+  </si>
+  <si>
+    <t>思考的炼金石磨</t>
+  </si>
+  <si>
+    <t>思考的炼成阵</t>
+  </si>
+  <si>
+    <t>思考的红宝石</t>
+  </si>
+  <si>
+    <t>思考的王水</t>
+  </si>
+  <si>
+    <t>思考的长生露</t>
+  </si>
+  <si>
+    <t>思考的五芒星</t>
+  </si>
+  <si>
+    <t>思考的太阳</t>
+  </si>
+  <si>
+    <t>思考的月亮</t>
+  </si>
+  <si>
+    <t>思考的黄金之塔</t>
+  </si>
+  <si>
+    <t>思考的卡巴拉之术</t>
+  </si>
+  <si>
+    <t>思考的星锑</t>
+  </si>
+  <si>
+    <t>思考的圣杯</t>
+  </si>
+  <si>
+    <t>思考的贤者之石</t>
+  </si>
+  <si>
+    <t>思考的天国阶梯</t>
+  </si>
+  <si>
+    <t>思考的暗物质星系</t>
+  </si>
+  <si>
+    <t>思考的平行宇宙</t>
+  </si>
+  <si>
+    <t>1.5|7</t>
+  </si>
+  <si>
+    <t>1.9|9</t>
+  </si>
+  <si>
+    <t>3.3|10</t>
+  </si>
+  <si>
+    <t>1.2|12</t>
+  </si>
+  <si>
+    <t>4.2|12</t>
+  </si>
+  <si>
+    <t>1.2|13</t>
+  </si>
+  <si>
+    <t>3.1|13</t>
+  </si>
+  <si>
+    <t>7.2|13</t>
+  </si>
+  <si>
+    <t>1.5|14</t>
+  </si>
+  <si>
+    <t>2.9|14</t>
+  </si>
+  <si>
+    <t>5.4|14</t>
+  </si>
+  <si>
+    <t>9.4|14</t>
+  </si>
+  <si>
+    <t>1.6|15</t>
+  </si>
+  <si>
+    <t>2.6|15</t>
+  </si>
+  <si>
+    <t>4.0|15</t>
+  </si>
+  <si>
+    <t>6.2|15</t>
+  </si>
+  <si>
+    <t>9.2|15</t>
+  </si>
+  <si>
+    <t>1.3|16</t>
+  </si>
+  <si>
+    <t>1.9|16</t>
+  </si>
+  <si>
+    <t>遐思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让所有物品获得思考的能力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遐思</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>盐、硫、汞获得金币 +0.1 倍。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>add[10001][bonus][efficiency][1.1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逃脱大师</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>据说他之前也是炼金术士。每秒点击变为50倍，持续50秒。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>click[50][time][efficiency][50]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2251,8 +2718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E93042-FDD7-4095-BDE6-2D807EF660F2}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2461,7 +2928,7 @@
         <v>48</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2481,7 +2948,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2501,7 +2968,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>400</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2521,7 +2988,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>401</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2541,7 +3008,7 @@
         <v>52</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2561,7 +3028,7 @@
         <v>53</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>403</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2815,8 +3282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E051483D-BA96-4FF1-9EBC-33D32BF815CB}">
   <dimension ref="A1:G132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A99" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2826,7 +3293,7 @@
     <col min="3" max="3" width="35.75" customWidth="1"/>
     <col min="4" max="4" width="6.25" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="6" max="6" width="6.375" customWidth="1"/>
     <col min="7" max="7" width="29.375" style="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2870,7 +3337,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>459</v>
+        <v>409</v>
       </c>
       <c r="G2" s="43" t="s">
         <v>11</v>
@@ -2893,7 +3360,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>460</v>
+        <v>410</v>
       </c>
       <c r="G3" s="43" t="s">
         <v>12</v>
@@ -3548,7 +4015,7 @@
         <v>20029</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>217</v>
@@ -3571,7 +4038,7 @@
         <v>20030</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>217</v>
@@ -3594,7 +4061,7 @@
         <v>20031</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>217</v>
@@ -3617,7 +4084,7 @@
         <v>20032</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>217</v>
@@ -3640,7 +4107,7 @@
         <v>20033</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>217</v>
@@ -3663,13 +4130,13 @@
         <v>20034</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>218</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>404</v>
+        <v>354</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>234</v>
@@ -3686,13 +4153,13 @@
         <v>20035</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>218</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>234</v>
@@ -3709,13 +4176,13 @@
         <v>20036</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>218</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>234</v>
@@ -3732,13 +4199,13 @@
         <v>20037</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>218</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>234</v>
@@ -3755,13 +4222,13 @@
         <v>20038</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>218</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>408</v>
+        <v>358</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>234</v>
@@ -3778,13 +4245,13 @@
         <v>20039</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>218</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>409</v>
+        <v>359</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>234</v>
@@ -3801,22 +4268,22 @@
         <v>20040</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>219</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>458</v>
+        <v>408</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43" s="43" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -3824,22 +4291,22 @@
         <v>20041</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>219</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>411</v>
+        <v>361</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>458</v>
+        <v>408</v>
       </c>
       <c r="F44">
         <v>20040</v>
       </c>
       <c r="G44" s="43" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -3847,22 +4314,22 @@
         <v>20042</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>219</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>458</v>
+        <v>408</v>
       </c>
       <c r="F45">
         <v>20041</v>
       </c>
       <c r="G45" s="43" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -3870,22 +4337,22 @@
         <v>20043</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>219</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>413</v>
+        <v>363</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>458</v>
+        <v>408</v>
       </c>
       <c r="F46">
         <v>20042</v>
       </c>
       <c r="G46" s="43" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -3893,22 +4360,22 @@
         <v>20044</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>219</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>414</v>
+        <v>364</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>458</v>
+        <v>408</v>
       </c>
       <c r="F47">
         <v>20043</v>
       </c>
       <c r="G47" s="43" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -3916,22 +4383,22 @@
         <v>20045</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>415</v>
+        <v>365</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>458</v>
+        <v>408</v>
       </c>
       <c r="F48">
         <v>20044</v>
       </c>
       <c r="G48" s="43" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -3939,13 +4406,13 @@
         <v>20046</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>220</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>416</v>
+        <v>366</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>235</v>
@@ -3954,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="43" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -3962,13 +4429,13 @@
         <v>20047</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>220</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>235</v>
@@ -3977,7 +4444,7 @@
         <v>20046</v>
       </c>
       <c r="G50" s="43" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -3985,13 +4452,13 @@
         <v>20048</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>220</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>418</v>
+        <v>368</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>235</v>
@@ -4000,7 +4467,7 @@
         <v>20047</v>
       </c>
       <c r="G51" s="43" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -4008,13 +4475,13 @@
         <v>20049</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>220</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>419</v>
+        <v>369</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>235</v>
@@ -4023,7 +4490,7 @@
         <v>20048</v>
       </c>
       <c r="G52" s="43" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -4031,13 +4498,13 @@
         <v>20050</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>220</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>235</v>
@@ -4046,7 +4513,7 @@
         <v>20049</v>
       </c>
       <c r="G53" s="43" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -4054,13 +4521,13 @@
         <v>20051</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>220</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>421</v>
+        <v>371</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>235</v>
@@ -4069,7 +4536,7 @@
         <v>20050</v>
       </c>
       <c r="G54" s="43" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -4077,13 +4544,13 @@
         <v>20052</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>221</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>422</v>
+        <v>372</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>236</v>
@@ -4100,13 +4567,13 @@
         <v>20053</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>221</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>423</v>
+        <v>373</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>236</v>
@@ -4123,13 +4590,13 @@
         <v>20054</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>221</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>424</v>
+        <v>374</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>236</v>
@@ -4146,13 +4613,13 @@
         <v>20055</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>221</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>425</v>
+        <v>375</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>236</v>
@@ -4169,13 +4636,13 @@
         <v>20056</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>221</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>426</v>
+        <v>376</v>
       </c>
       <c r="E59" s="13" t="s">
         <v>236</v>
@@ -4192,13 +4659,13 @@
         <v>20057</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>221</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>427</v>
+        <v>377</v>
       </c>
       <c r="E60" s="13" t="s">
         <v>236</v>
@@ -4215,13 +4682,13 @@
         <v>20058</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>222</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>428</v>
+        <v>378</v>
       </c>
       <c r="E61" s="13" t="s">
         <v>237</v>
@@ -4238,13 +4705,13 @@
         <v>20059</v>
       </c>
       <c r="B62" s="41" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>222</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>429</v>
+        <v>379</v>
       </c>
       <c r="E62" s="13" t="s">
         <v>237</v>
@@ -4261,13 +4728,13 @@
         <v>20060</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>222</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="E63" s="13" t="s">
         <v>237</v>
@@ -4284,13 +4751,13 @@
         <v>20061</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>222</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>431</v>
+        <v>381</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>237</v>
@@ -4307,13 +4774,13 @@
         <v>20062</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>222</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>432</v>
+        <v>382</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>237</v>
@@ -4330,13 +4797,13 @@
         <v>20063</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>222</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>433</v>
+        <v>383</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>237</v>
@@ -4353,13 +4820,13 @@
         <v>20064</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>223</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>434</v>
+        <v>384</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>238</v>
@@ -4376,13 +4843,13 @@
         <v>20065</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>223</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>435</v>
+        <v>385</v>
       </c>
       <c r="E68" s="13" t="s">
         <v>238</v>
@@ -4399,13 +4866,13 @@
         <v>20066</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>223</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>238</v>
@@ -4422,13 +4889,13 @@
         <v>20067</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>223</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>238</v>
@@ -4445,13 +4912,13 @@
         <v>20068</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>223</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>438</v>
+        <v>388</v>
       </c>
       <c r="E71" s="13" t="s">
         <v>238</v>
@@ -4468,13 +4935,13 @@
         <v>20069</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>223</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>439</v>
+        <v>389</v>
       </c>
       <c r="E72" s="13" t="s">
         <v>238</v>
@@ -4491,13 +4958,13 @@
         <v>20070</v>
       </c>
       <c r="B73" s="37" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>224</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>440</v>
+        <v>390</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>239</v>
@@ -4514,13 +4981,13 @@
         <v>20071</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>224</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>441</v>
+        <v>391</v>
       </c>
       <c r="E74" s="13" t="s">
         <v>239</v>
@@ -4537,13 +5004,13 @@
         <v>20072</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>224</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>442</v>
+        <v>392</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>239</v>
@@ -4560,13 +5027,13 @@
         <v>20073</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>224</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>443</v>
+        <v>393</v>
       </c>
       <c r="E76" s="13" t="s">
         <v>239</v>
@@ -4583,13 +5050,13 @@
         <v>20074</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>224</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>444</v>
+        <v>394</v>
       </c>
       <c r="E77" s="13" t="s">
         <v>239</v>
@@ -4606,13 +5073,13 @@
         <v>20075</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>224</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>445</v>
+        <v>395</v>
       </c>
       <c r="E78" s="13" t="s">
         <v>239</v>
@@ -4624,12 +5091,1116 @@
         <v>103</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>20076</v>
+      </c>
+      <c r="B79" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79" s="44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>20077</v>
+      </c>
+      <c r="B80" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="F80">
+        <v>20076</v>
+      </c>
+      <c r="G80" s="44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>20078</v>
+      </c>
+      <c r="B81" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="F81">
+        <v>20077</v>
+      </c>
+      <c r="G81" s="44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>20079</v>
+      </c>
+      <c r="B82" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="F82">
+        <v>20078</v>
+      </c>
+      <c r="G82" s="44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>20080</v>
+      </c>
+      <c r="B83" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="F83">
+        <v>20079</v>
+      </c>
+      <c r="G83" s="44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>20081</v>
+      </c>
+      <c r="B84" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="F84">
+        <v>20080</v>
+      </c>
+      <c r="G84" s="44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>20082</v>
+      </c>
+      <c r="B85" s="36" t="s">
+        <v>415</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" s="44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>20083</v>
+      </c>
+      <c r="B86" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="F86">
+        <v>20082</v>
+      </c>
+      <c r="G86" s="44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>20084</v>
+      </c>
+      <c r="B87" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="F87">
+        <v>20083</v>
+      </c>
+      <c r="G87" s="44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>20085</v>
+      </c>
+      <c r="B88" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="F88">
+        <v>20084</v>
+      </c>
+      <c r="G88" s="44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>20086</v>
+      </c>
+      <c r="B89" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="F89">
+        <v>20085</v>
+      </c>
+      <c r="G89" s="44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>20087</v>
+      </c>
+      <c r="B90" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="F90">
+        <v>20086</v>
+      </c>
+      <c r="G90" s="44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>20088</v>
+      </c>
+      <c r="B91" s="40" t="s">
+        <v>420</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91" s="44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>20089</v>
+      </c>
+      <c r="B92" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F92">
+        <v>20088</v>
+      </c>
+      <c r="G92" s="44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>20090</v>
+      </c>
+      <c r="B93" s="40" t="s">
+        <v>421</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F93">
+        <v>20089</v>
+      </c>
+      <c r="G93" s="44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>20091</v>
+      </c>
+      <c r="B94" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F94">
+        <v>20090</v>
+      </c>
+      <c r="G94" s="44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>20092</v>
+      </c>
+      <c r="B95" s="29" t="s">
+        <v>423</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F95">
+        <v>20091</v>
+      </c>
+      <c r="G95" s="44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>20093</v>
+      </c>
+      <c r="B96" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F96">
+        <v>20092</v>
+      </c>
+      <c r="G96" s="44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>20094</v>
+      </c>
+      <c r="B97" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97" s="44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>20095</v>
+      </c>
+      <c r="B98" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="F98">
+        <v>20094</v>
+      </c>
+      <c r="G98" s="44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>20096</v>
+      </c>
+      <c r="B99" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="F99">
+        <v>20095</v>
+      </c>
+      <c r="G99" s="44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>20097</v>
+      </c>
+      <c r="B100" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="F100">
+        <v>20096</v>
+      </c>
+      <c r="G100" s="44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>20098</v>
+      </c>
+      <c r="B101" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="F101">
+        <v>20097</v>
+      </c>
+      <c r="G101" s="44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>20099</v>
+      </c>
+      <c r="B102" s="30" t="s">
+        <v>430</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="F102">
+        <v>20098</v>
+      </c>
+      <c r="G102" s="44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>20100</v>
+      </c>
+      <c r="B103" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103" s="44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>20101</v>
+      </c>
+      <c r="B104" s="31" t="s">
+        <v>432</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="F104">
+        <v>20100</v>
+      </c>
+      <c r="G104" s="44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>20102</v>
+      </c>
+      <c r="B105" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="F105">
+        <v>20101</v>
+      </c>
+      <c r="G105" s="44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>20103</v>
+      </c>
+      <c r="B106" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="F106">
+        <v>20102</v>
+      </c>
+      <c r="G106" s="44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>20104</v>
+      </c>
+      <c r="B107" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="F107">
+        <v>20103</v>
+      </c>
+      <c r="G107" s="44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>20105</v>
+      </c>
+      <c r="B108" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="F108">
+        <v>20104</v>
+      </c>
+      <c r="G108" s="44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>20106</v>
+      </c>
+      <c r="B109" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109" s="44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>20107</v>
+      </c>
+      <c r="B110" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="F110">
+        <v>20106</v>
+      </c>
+      <c r="G110" s="44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>20108</v>
+      </c>
+      <c r="B111" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="F111">
+        <v>20107</v>
+      </c>
+      <c r="G111" s="44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>20109</v>
+      </c>
+      <c r="B112" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="E112" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="F112">
+        <v>20108</v>
+      </c>
+      <c r="G112" s="44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>20110</v>
+      </c>
+      <c r="B113" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="E113" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="F113">
+        <v>20109</v>
+      </c>
+      <c r="G113" s="44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>20111</v>
+      </c>
+      <c r="B114" s="38" t="s">
+        <v>305</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="F114">
+        <v>20110</v>
+      </c>
+      <c r="G114" s="44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>20112</v>
+      </c>
+      <c r="B115" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115" s="44" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>20113</v>
+      </c>
+      <c r="B116" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="E116" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F116">
+        <v>20112</v>
+      </c>
+      <c r="G116" s="44" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>20114</v>
+      </c>
+      <c r="B117" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="E117" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F117">
+        <v>20113</v>
+      </c>
+      <c r="G117" s="44" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>20115</v>
+      </c>
+      <c r="B118" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="E118" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F118">
+        <v>20114</v>
+      </c>
+      <c r="G118" s="44" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>20116</v>
+      </c>
+      <c r="B119" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="E119" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F119">
+        <v>20115</v>
+      </c>
+      <c r="G119" s="44" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>20117</v>
+      </c>
+      <c r="B120" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D120" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="E120" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F120">
+        <v>20116</v>
+      </c>
+      <c r="G120" s="44" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>20118</v>
+      </c>
+      <c r="B121" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="E121" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>20119</v>
+      </c>
+      <c r="B122" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="F122">
+        <v>20118</v>
+      </c>
+      <c r="G122" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>20120</v>
+      </c>
+      <c r="B123" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="E123" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="F123">
+        <v>20119</v>
+      </c>
+      <c r="G123" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>20121</v>
+      </c>
+      <c r="B124" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="E124" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="F124">
+        <v>20120</v>
+      </c>
+      <c r="G124" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>20122</v>
+      </c>
+      <c r="B125" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="E125" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="F125">
+        <v>20121</v>
+      </c>
+      <c r="G125" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>20123</v>
+      </c>
+      <c r="B126" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D126" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="E126" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="F126">
+        <v>20122</v>
+      </c>
+      <c r="G126" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B127" s="33"/>
       <c r="C127" s="13"/>
       <c r="E127" s="13"/>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B128" s="33"/>
       <c r="C128" s="13"/>
       <c r="E128" s="13"/>
@@ -4662,10 +6233,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7E6B59-2776-4BF4-820D-1188B7AE0776}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4738,870 +6309,6 @@
       <c r="G3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>20076</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="F5" t="s">
-        <v>350</v>
-      </c>
-      <c r="G5" s="44"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>20077</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>343</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="F6" t="s">
-        <v>351</v>
-      </c>
-      <c r="G6" s="44"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>20078</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="F7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G7" s="44"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>20079</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="F8" t="s">
-        <v>353</v>
-      </c>
-      <c r="G8" s="44"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>20080</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="F9" t="s">
-        <v>354</v>
-      </c>
-      <c r="G9" s="44"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>20081</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="F10" t="s">
-        <v>355</v>
-      </c>
-      <c r="G10" s="44"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>20082</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>287</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F11" t="s">
-        <v>356</v>
-      </c>
-      <c r="G11" s="44"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>20083</v>
-      </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F12" t="s">
-        <v>357</v>
-      </c>
-      <c r="G12" s="44"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>20084</v>
-      </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F13" t="s">
-        <v>358</v>
-      </c>
-      <c r="G13" s="44"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>20085</v>
-      </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F14" t="s">
-        <v>359</v>
-      </c>
-      <c r="G14" s="44"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>20086</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F15" t="s">
-        <v>360</v>
-      </c>
-      <c r="G15" s="44"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>20087</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F16" t="s">
-        <v>361</v>
-      </c>
-      <c r="G16" s="44"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>20088</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>308</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F17" t="s">
-        <v>362</v>
-      </c>
-      <c r="G17" s="44"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>20089</v>
-      </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F18" t="s">
-        <v>363</v>
-      </c>
-      <c r="G18" s="44"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>20090</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F19" t="s">
-        <v>364</v>
-      </c>
-      <c r="G19" s="44"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>20091</v>
-      </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F20" t="s">
-        <v>365</v>
-      </c>
-      <c r="G20" s="44"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20092</v>
-      </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F21" t="s">
-        <v>366</v>
-      </c>
-      <c r="G21" s="44"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>20093</v>
-      </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F22" t="s">
-        <v>367</v>
-      </c>
-      <c r="G22" s="44"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>20094</v>
-      </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="F23" t="s">
-        <v>368</v>
-      </c>
-      <c r="G23" s="44"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>20095</v>
-      </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="F24" t="s">
-        <v>369</v>
-      </c>
-      <c r="G24" s="44"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>20096</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="F25" t="s">
-        <v>370</v>
-      </c>
-      <c r="G25" s="44"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>20097</v>
-      </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="F26" t="s">
-        <v>371</v>
-      </c>
-      <c r="G26" s="44"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>20098</v>
-      </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="F27" t="s">
-        <v>372</v>
-      </c>
-      <c r="G27" s="44"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>20099</v>
-      </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="F28" t="s">
-        <v>373</v>
-      </c>
-      <c r="G28" s="44"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>20100</v>
-      </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="F29" t="s">
-        <v>374</v>
-      </c>
-      <c r="G29" s="44"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>20101</v>
-      </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="F30" t="s">
-        <v>375</v>
-      </c>
-      <c r="G30" s="44"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>20102</v>
-      </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="F31" t="s">
-        <v>376</v>
-      </c>
-      <c r="G31" s="44"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>20103</v>
-      </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="F32" t="s">
-        <v>377</v>
-      </c>
-      <c r="G32" s="44"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>20104</v>
-      </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="F33" t="s">
-        <v>378</v>
-      </c>
-      <c r="G33" s="44"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>20105</v>
-      </c>
-      <c r="B34" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="F34" t="s">
-        <v>379</v>
-      </c>
-      <c r="G34" s="44"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>20106</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>291</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="F35" t="s">
-        <v>380</v>
-      </c>
-      <c r="G35" s="44"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>20107</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="F36" t="s">
-        <v>381</v>
-      </c>
-      <c r="G36" s="44"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>20108</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="F37" t="s">
-        <v>382</v>
-      </c>
-      <c r="G37" s="44"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>20109</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="F38" t="s">
-        <v>383</v>
-      </c>
-      <c r="G38" s="44"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>20110</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="F39" t="s">
-        <v>384</v>
-      </c>
-      <c r="G39" s="44"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>20111</v>
-      </c>
-      <c r="B40" s="38" t="s">
-        <v>307</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="F40" t="s">
-        <v>385</v>
-      </c>
-      <c r="G40" s="44"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>20112</v>
-      </c>
-      <c r="B41" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="F41" t="s">
-        <v>386</v>
-      </c>
-      <c r="G41" s="44"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>20113</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="F42" t="s">
-        <v>387</v>
-      </c>
-      <c r="G42" s="44"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>20114</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="F43" t="s">
-        <v>388</v>
-      </c>
-      <c r="G43" s="44"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>20115</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="F44" t="s">
-        <v>389</v>
-      </c>
-      <c r="G44" s="44"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>20116</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="F45" t="s">
-        <v>390</v>
-      </c>
-      <c r="G45" s="44"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>20117</v>
-      </c>
-      <c r="B46" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="F46" t="s">
-        <v>391</v>
-      </c>
-      <c r="G46" s="44"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>20118</v>
-      </c>
-      <c r="B47" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="F47" t="s">
-        <v>392</v>
-      </c>
-      <c r="G47" s="44"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>20119</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="F48" t="s">
-        <v>393</v>
-      </c>
-      <c r="G48" s="44"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>20120</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>299</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="F49" t="s">
-        <v>394</v>
-      </c>
-      <c r="G49" s="44"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>20121</v>
-      </c>
-      <c r="B50" s="33" t="s">
-        <v>300</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="F50" t="s">
-        <v>395</v>
-      </c>
-      <c r="G50" s="44"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>20122</v>
-      </c>
-      <c r="B51" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="F51" t="s">
-        <v>396</v>
-      </c>
-      <c r="G51" s="44"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>20123</v>
-      </c>
-      <c r="B52" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="F52" t="s">
-        <v>397</v>
-      </c>
-      <c r="G52" s="44"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -5614,7 +6321,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5710,6 +6417,456 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44371BC-C7C8-48DE-938F-FA51A9FA2E3A}">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>70001</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>70002</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="E5">
+        <v>70001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>70003</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="E6">
+        <v>70001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>70004</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="E7">
+        <v>70002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>70005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>547</v>
+      </c>
+      <c r="C8" t="s">
+        <v>567</v>
+      </c>
+      <c r="E8">
+        <v>70025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>70006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>548</v>
+      </c>
+      <c r="C9" t="s">
+        <v>568</v>
+      </c>
+      <c r="E9">
+        <v>70005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>70007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>549</v>
+      </c>
+      <c r="C10" t="s">
+        <v>569</v>
+      </c>
+      <c r="E10">
+        <v>70006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>70008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>550</v>
+      </c>
+      <c r="C11" t="s">
+        <v>373</v>
+      </c>
+      <c r="E11">
+        <v>70007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>70009</v>
+      </c>
+      <c r="B12" t="s">
+        <v>551</v>
+      </c>
+      <c r="C12" t="s">
+        <v>570</v>
+      </c>
+      <c r="E12">
+        <v>70008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>70010</v>
+      </c>
+      <c r="B13" t="s">
+        <v>552</v>
+      </c>
+      <c r="C13" t="s">
+        <v>571</v>
+      </c>
+      <c r="E13">
+        <v>70009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>70011</v>
+      </c>
+      <c r="B14" t="s">
+        <v>553</v>
+      </c>
+      <c r="C14" t="s">
+        <v>572</v>
+      </c>
+      <c r="E14">
+        <v>70010</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>70012</v>
+      </c>
+      <c r="B15" t="s">
+        <v>554</v>
+      </c>
+      <c r="C15" t="s">
+        <v>573</v>
+      </c>
+      <c r="E15">
+        <v>70011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>70013</v>
+      </c>
+      <c r="B16" t="s">
+        <v>555</v>
+      </c>
+      <c r="C16" t="s">
+        <v>574</v>
+      </c>
+      <c r="E16">
+        <v>70012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>70014</v>
+      </c>
+      <c r="B17" t="s">
+        <v>556</v>
+      </c>
+      <c r="C17" t="s">
+        <v>575</v>
+      </c>
+      <c r="E17">
+        <v>70013</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>70015</v>
+      </c>
+      <c r="B18" t="s">
+        <v>557</v>
+      </c>
+      <c r="C18" t="s">
+        <v>576</v>
+      </c>
+      <c r="E18">
+        <v>70014</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>70016</v>
+      </c>
+      <c r="B19" t="s">
+        <v>558</v>
+      </c>
+      <c r="C19" t="s">
+        <v>577</v>
+      </c>
+      <c r="E19">
+        <v>70015</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>70017</v>
+      </c>
+      <c r="B20" t="s">
+        <v>559</v>
+      </c>
+      <c r="C20" t="s">
+        <v>578</v>
+      </c>
+      <c r="E20">
+        <v>70016</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>70018</v>
+      </c>
+      <c r="B21" t="s">
+        <v>560</v>
+      </c>
+      <c r="C21" t="s">
+        <v>579</v>
+      </c>
+      <c r="E21">
+        <v>70017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>70019</v>
+      </c>
+      <c r="B22" t="s">
+        <v>561</v>
+      </c>
+      <c r="C22" t="s">
+        <v>580</v>
+      </c>
+      <c r="E22">
+        <v>70018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>70020</v>
+      </c>
+      <c r="B23" t="s">
+        <v>562</v>
+      </c>
+      <c r="C23" t="s">
+        <v>581</v>
+      </c>
+      <c r="E23">
+        <v>70019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>70021</v>
+      </c>
+      <c r="B24" t="s">
+        <v>563</v>
+      </c>
+      <c r="C24" t="s">
+        <v>582</v>
+      </c>
+      <c r="E24">
+        <v>70020</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>70022</v>
+      </c>
+      <c r="B25" t="s">
+        <v>564</v>
+      </c>
+      <c r="C25" t="s">
+        <v>583</v>
+      </c>
+      <c r="E25">
+        <v>70021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>70023</v>
+      </c>
+      <c r="B26" t="s">
+        <v>565</v>
+      </c>
+      <c r="C26" t="s">
+        <v>584</v>
+      </c>
+      <c r="E26">
+        <v>70022</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>70024</v>
+      </c>
+      <c r="B27" t="s">
+        <v>566</v>
+      </c>
+      <c r="C27" t="s">
+        <v>585</v>
+      </c>
+      <c r="E27">
+        <v>70023</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>70025</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="C28" t="s">
+        <v>538</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1FD663-5E7F-4D1A-B878-267A2C2C2484}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -5784,7 +6941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D270D9-27FC-4901-80D2-4C5A4DFB7C2A}">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -5931,12 +7088,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CB22F1-D1C5-44DC-9DC8-1A51E67C4572}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6021,10 +7178,10 @@
         <v>211</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>268</v>
+        <v>544</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>269</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -6046,13 +7203,13 @@
         <v>60004</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>454</v>
+        <v>404</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -6060,13 +7217,13 @@
         <v>60005</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>455</v>
+        <v>405</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -6074,13 +7231,13 @@
         <v>60006</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>456</v>
+        <v>406</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -6088,13 +7245,13 @@
         <v>60007</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>457</v>
+        <v>407</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -6102,13 +7259,13 @@
         <v>60008</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>446</v>
+        <v>396</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>453</v>
+        <v>403</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>447</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -6116,13 +7273,13 @@
         <v>60009</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>446</v>
+        <v>396</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>449</v>
+        <v>399</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>448</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -6130,13 +7287,279 @@
         <v>60010</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>452</v>
+        <v>402</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>451</v>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>60011</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>60012</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>60013</v>
+      </c>
+      <c r="B16" t="s">
+        <v>487</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="D16" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>60014</v>
+      </c>
+      <c r="B17" t="s">
+        <v>489</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>60015</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>60016</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>60017</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>60018</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>60019</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>60020</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>60021</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>60022</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>60023</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>60024</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>60025</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>60026</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>60027</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>60028</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>588</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>60029</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>592</v>
       </c>
     </row>
   </sheetData>

--- a/Setting/data/数据表.xlsx
+++ b/Setting/data/数据表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\Clicker\Setting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E45F66-ECA7-4D5C-849C-BDCA8002D851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBEF6C2-5AF1-45D4-8C31-D7718718E89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物品表 - Items" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="596">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2168,6 +2168,14 @@
   </si>
   <si>
     <t>click[50][time][efficiency][50]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2718,7 +2726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E93042-FDD7-4095-BDE6-2D807EF660F2}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -3282,8 +3290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E051483D-BA96-4FF1-9EBC-33D32BF815CB}">
   <dimension ref="A1:G132"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A108" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D126" sqref="D115:D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6321,7 +6329,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:XFD3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6943,10 +6951,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D270D9-27FC-4901-80D2-4C5A4DFB7C2A}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6959,17 +6967,15 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -6979,17 +6985,15 @@
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>7</v>
+        <v>594</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
@@ -6999,17 +7003,15 @@
         <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>8</v>
+        <v>595</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -7018,6 +7020,9 @@
       <c r="B4" s="20" t="s">
         <v>201</v>
       </c>
+      <c r="C4" s="13" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -7026,6 +7031,9 @@
       <c r="B5" s="13" t="s">
         <v>202</v>
       </c>
+      <c r="C5" s="13" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -7034,6 +7042,9 @@
       <c r="B6" s="13" t="s">
         <v>203</v>
       </c>
+      <c r="C6" s="13" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -7042,6 +7053,9 @@
       <c r="B7" s="13" t="s">
         <v>204</v>
       </c>
+      <c r="C7" s="13" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -7050,6 +7064,9 @@
       <c r="B8" s="13" t="s">
         <v>205</v>
       </c>
+      <c r="C8" s="13" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -7058,6 +7075,9 @@
       <c r="B9" s="13" t="s">
         <v>206</v>
       </c>
+      <c r="C9" s="13" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -7066,20 +7086,42 @@
       <c r="B10" s="13" t="s">
         <v>207</v>
       </c>
+      <c r="C10" s="13" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>50008</v>
       </c>
+      <c r="C11" s="13" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>50009</v>
       </c>
+      <c r="C12" s="13" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>50010</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C14" s="13" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C15" s="13" t="s">
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -7092,8 +7134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CB22F1-D1C5-44DC-9DC8-1A51E67C4572}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Setting/data/数据表.xlsx
+++ b/Setting/data/数据表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\Clicker\Setting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBEF6C2-5AF1-45D4-8C31-D7718718E89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C009842-35DD-4C40-B502-ED115F51EA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物品表 - Items" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="597">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1855,14 +1855,6 @@
     <t>Wabby Wabbo</t>
   </si>
   <si>
-    <t>click[77][time][efficiency][777]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>are you good MyRiXYa! 每秒点击变为 777 倍，持续 77 秒。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>幸运太阳荷包</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2171,11 +2163,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
+    <t>click[77][time][efficiency][7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>are you good MyRiXYa! 每秒点击变为 7 倍，持续 77 秒。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>冥界使者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天国卫士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水元素</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6508,13 +6512,13 @@
         <v>70001</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>62</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -6525,13 +6529,13 @@
         <v>70002</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E5">
         <v>70001</v>
@@ -6542,13 +6546,13 @@
         <v>70003</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E6">
         <v>70001</v>
@@ -6559,13 +6563,13 @@
         <v>70004</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E7">
         <v>70002</v>
@@ -6576,10 +6580,10 @@
         <v>70005</v>
       </c>
       <c r="B8" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E8">
         <v>70025</v>
@@ -6590,10 +6594,10 @@
         <v>70006</v>
       </c>
       <c r="B9" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C9" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E9">
         <v>70005</v>
@@ -6604,10 +6608,10 @@
         <v>70007</v>
       </c>
       <c r="B10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C10" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E10">
         <v>70006</v>
@@ -6618,7 +6622,7 @@
         <v>70008</v>
       </c>
       <c r="B11" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C11" t="s">
         <v>373</v>
@@ -6632,10 +6636,10 @@
         <v>70009</v>
       </c>
       <c r="B12" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C12" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E12">
         <v>70008</v>
@@ -6646,10 +6650,10 @@
         <v>70010</v>
       </c>
       <c r="B13" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C13" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E13">
         <v>70009</v>
@@ -6660,10 +6664,10 @@
         <v>70011</v>
       </c>
       <c r="B14" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E14">
         <v>70010</v>
@@ -6674,10 +6678,10 @@
         <v>70012</v>
       </c>
       <c r="B15" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C15" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E15">
         <v>70011</v>
@@ -6688,10 +6692,10 @@
         <v>70013</v>
       </c>
       <c r="B16" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C16" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E16">
         <v>70012</v>
@@ -6702,10 +6706,10 @@
         <v>70014</v>
       </c>
       <c r="B17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C17" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E17">
         <v>70013</v>
@@ -6716,10 +6720,10 @@
         <v>70015</v>
       </c>
       <c r="B18" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E18">
         <v>70014</v>
@@ -6730,10 +6734,10 @@
         <v>70016</v>
       </c>
       <c r="B19" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C19" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E19">
         <v>70015</v>
@@ -6744,10 +6748,10 @@
         <v>70017</v>
       </c>
       <c r="B20" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C20" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E20">
         <v>70016</v>
@@ -6758,10 +6762,10 @@
         <v>70018</v>
       </c>
       <c r="B21" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C21" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E21">
         <v>70017</v>
@@ -6772,10 +6776,10 @@
         <v>70019</v>
       </c>
       <c r="B22" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C22" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E22">
         <v>70018</v>
@@ -6786,10 +6790,10 @@
         <v>70020</v>
       </c>
       <c r="B23" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C23" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E23">
         <v>70019</v>
@@ -6800,10 +6804,10 @@
         <v>70021</v>
       </c>
       <c r="B24" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C24" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E24">
         <v>70020</v>
@@ -6814,10 +6818,10 @@
         <v>70022</v>
       </c>
       <c r="B25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C25" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E25">
         <v>70021</v>
@@ -6828,10 +6832,10 @@
         <v>70023</v>
       </c>
       <c r="B26" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C26" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E26">
         <v>70022</v>
@@ -6842,10 +6846,10 @@
         <v>70024</v>
       </c>
       <c r="B27" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C27" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E27">
         <v>70023</v>
@@ -6856,13 +6860,13 @@
         <v>70025</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C28" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -6953,8 +6957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D270D9-27FC-4901-80D2-4C5A4DFB7C2A}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6966,15 +6970,9 @@
       <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
@@ -6984,15 +6982,9 @@
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
@@ -7002,15 +6994,9 @@
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
@@ -7020,9 +7006,7 @@
       <c r="B4" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>472</v>
-      </c>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -7031,9 +7015,7 @@
       <c r="B5" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>472</v>
-      </c>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -7042,9 +7024,7 @@
       <c r="B6" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>473</v>
-      </c>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -7053,9 +7033,7 @@
       <c r="B7" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>474</v>
-      </c>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -7064,9 +7042,7 @@
       <c r="B8" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>475</v>
-      </c>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -7075,9 +7051,7 @@
       <c r="B9" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>476</v>
-      </c>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -7086,43 +7060,40 @@
       <c r="B10" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>477</v>
-      </c>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>50008</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>478</v>
-      </c>
+      <c r="B11" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>50009</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>479</v>
-      </c>
+      <c r="B12" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="C12" s="13"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>50010</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>480</v>
-      </c>
+      <c r="B13" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C14" s="13" t="s">
-        <v>481</v>
-      </c>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C15" s="13" t="s">
-        <v>482</v>
-      </c>
+      <c r="C15" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7134,8 +7105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CB22F1-D1C5-44DC-9DC8-1A51E67C4572}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A12" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7220,10 +7191,10 @@
         <v>211</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -7444,10 +7415,10 @@
         <v>504</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>505</v>
+        <v>592</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>506</v>
+        <v>593</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -7455,13 +7426,13 @@
         <v>60019</v>
       </c>
       <c r="B22" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>507</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>512</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -7469,13 +7440,13 @@
         <v>60020</v>
       </c>
       <c r="B23" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>508</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -7483,13 +7454,13 @@
         <v>60021</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>515</v>
-      </c>
       <c r="D24" s="13" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -7497,13 +7468,13 @@
         <v>60022</v>
       </c>
       <c r="B25" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>518</v>
-      </c>
       <c r="D25" s="13" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -7511,13 +7482,13 @@
         <v>60023</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -7525,13 +7496,13 @@
         <v>60024</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -7539,13 +7510,13 @@
         <v>60025</v>
       </c>
       <c r="B28" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>525</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>527</v>
-      </c>
       <c r="D28" s="13" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -7553,13 +7524,13 @@
         <v>60026</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -7567,13 +7538,13 @@
         <v>60027</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C30" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>531</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -7581,13 +7552,13 @@
         <v>60028</v>
       </c>
       <c r="B31" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>588</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>590</v>
-      </c>
       <c r="D31" s="13" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -7595,13 +7566,13 @@
         <v>60029</v>
       </c>
       <c r="B32" s="13" t="s">
+        <v>589</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>591</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>593</v>
-      </c>
       <c r="D32" s="13" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>
